--- a/SingleCycle/Hover_单周期硬布线控制器表达式自动生成.xlsx
+++ b/SingleCycle/Hover_单周期硬布线控制器表达式自动生成.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12060"/>
+    <workbookView windowWidth="28200" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,15 @@
     <sheet name="控制信号产生条件" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">控制信号表达式生成!$A$1:$AJ$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">真值表!$A$1:$AI$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">控制信号表达式生成!$A$1:$AL$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">真值表!$A$1:$AK$25</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
   <si>
     <t>#</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>S0</t>
+  </si>
+  <si>
+    <t>R1_Used</t>
+  </si>
+  <si>
+    <t>R2_Used</t>
   </si>
   <si>
     <t>MemtoReg</t>
@@ -832,10 +838,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,6 +984,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI Black"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI Black"/>
@@ -991,16 +1003,62 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,13 +1072,53 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1035,32 +1133,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,68 +1142,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,7 +1195,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1234,7 +1246,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,31 +1288,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,19 +1324,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,7 +1360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,13 +1372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,37 +1384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,25 +1420,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,11 +1648,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1638,6 +1668,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1672,32 +1711,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1715,91 +1728,102 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1808,34 +1832,34 @@
     <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1844,32 +1868,32 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2052,16 +2076,22 @@
     <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2403,10 +2433,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.399945066682943"/>
   </sheetPr>
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2423,19 +2453,21 @@
     <col min="18" max="19" width="3.37142857142857" style="43" customWidth="1"/>
     <col min="20" max="20" width="3.12380952380952" style="43" customWidth="1"/>
     <col min="21" max="21" width="3.37142857142857" style="43" customWidth="1"/>
-    <col min="22" max="22" width="12.9142857142857" style="43" customWidth="1"/>
-    <col min="23" max="23" width="13.1714285714286" style="43" customWidth="1"/>
-    <col min="24" max="24" width="13.0285714285714" style="43" customWidth="1"/>
-    <col min="25" max="25" width="11.6761904761905" style="43" customWidth="1"/>
-    <col min="26" max="27" width="9.24761904761905" style="43" customWidth="1"/>
-    <col min="28" max="31" width="9" style="43" customWidth="1"/>
-    <col min="32" max="32" width="9" style="44" customWidth="1"/>
-    <col min="33" max="33" width="11.3047619047619" style="44" customWidth="1"/>
-    <col min="34" max="34" width="13.0380952380952" style="45" customWidth="1"/>
-    <col min="35" max="37" width="9" style="45" customWidth="1"/>
+    <col min="22" max="22" width="8.71428571428571" style="43" customWidth="1"/>
+    <col min="23" max="23" width="10" style="43" customWidth="1"/>
+    <col min="24" max="24" width="12.9142857142857" style="43" customWidth="1"/>
+    <col min="25" max="25" width="13.1714285714286" style="43" customWidth="1"/>
+    <col min="26" max="26" width="13.0285714285714" style="43" customWidth="1"/>
+    <col min="27" max="27" width="11.6761904761905" style="43" customWidth="1"/>
+    <col min="28" max="29" width="9.24761904761905" style="43" customWidth="1"/>
+    <col min="30" max="33" width="9" style="43" customWidth="1"/>
+    <col min="34" max="34" width="9" style="44" customWidth="1"/>
+    <col min="35" max="35" width="11.3047619047619" style="44" customWidth="1"/>
+    <col min="36" max="36" width="13.0380952380952" style="45" customWidth="1"/>
+    <col min="37" max="39" width="9" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="24.75" spans="1:38">
+    <row r="1" s="17" customFormat="1" ht="24.75" spans="1:40">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -2505,58 +2537,64 @@
       <c r="W1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="64" t="s">
+      <c r="X1" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="64" t="s">
+      <c r="Y1" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="64" t="s">
+      <c r="Z1" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AA1" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AB1" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AD1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="64" t="s">
+      <c r="AE1" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="64" t="s">
+      <c r="AF1" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="64" t="s">
+      <c r="AG1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="66" t="s">
+      <c r="AH1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="66" t="s">
+      <c r="AI1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="66" t="s">
+      <c r="AJ1" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="66" t="s">
+      <c r="AK1" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AL1" s="68" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AM1" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" s="47">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="24">
         <v>0</v>
@@ -2631,33 +2669,39 @@
         <f t="shared" ref="U2:U29" si="15">IF(ISNUMBER($Q2),IF(MOD($Q2,2)&gt;=1,1,0),"X")</f>
         <v>0</v>
       </c>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
+      <c r="V2" s="66">
+        <v>1</v>
+      </c>
+      <c r="W2" s="66">
+        <v>1</v>
+      </c>
       <c r="X2" s="23"/>
-      <c r="Y2" s="23">
-        <v>1</v>
-      </c>
+      <c r="Y2" s="23"/>
       <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23">
-        <v>1</v>
-      </c>
+      <c r="AA2" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="23"/>
       <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
+      <c r="AD2" s="23">
+        <v>1</v>
+      </c>
       <c r="AE2" s="23"/>
       <c r="AF2" s="23"/>
       <c r="AG2" s="23"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
       <c r="AJ2" s="24"/>
       <c r="AK2" s="24"/>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" s="27">
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="28">
         <v>0</v>
@@ -2732,33 +2776,39 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
+      <c r="V3" s="67">
+        <v>1</v>
+      </c>
+      <c r="W3" s="67">
+        <v>1</v>
+      </c>
       <c r="X3" s="27"/>
-      <c r="Y3" s="27">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="27"/>
       <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27">
-        <v>1</v>
-      </c>
+      <c r="AA3" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="27"/>
       <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
+      <c r="AD3" s="27">
+        <v>1</v>
+      </c>
       <c r="AE3" s="27"/>
       <c r="AF3" s="27"/>
       <c r="AG3" s="27"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
       <c r="AJ3" s="28"/>
       <c r="AK3" s="28"/>
-    </row>
-    <row r="4" spans="1:37">
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" s="47">
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="24">
         <v>0</v>
@@ -2833,33 +2883,39 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
+      <c r="V4" s="66">
+        <v>1</v>
+      </c>
+      <c r="W4" s="66">
+        <v>1</v>
+      </c>
       <c r="X4" s="23"/>
-      <c r="Y4" s="23">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="23"/>
       <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="23"/>
       <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
+      <c r="AD4" s="23">
+        <v>1</v>
+      </c>
       <c r="AE4" s="23"/>
       <c r="AF4" s="23"/>
       <c r="AG4" s="23"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
       <c r="AJ4" s="24"/>
       <c r="AK4" s="24"/>
-    </row>
-    <row r="5" spans="1:39">
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" s="27">
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="28">
         <v>0</v>
@@ -2934,34 +2990,40 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
+      <c r="V5" s="67">
+        <v>1</v>
+      </c>
+      <c r="W5" s="67">
+        <v>1</v>
+      </c>
       <c r="X5" s="27"/>
-      <c r="Y5" s="27">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="27"/>
       <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
+      <c r="AD5" s="27">
+        <v>1</v>
+      </c>
       <c r="AE5" s="27"/>
       <c r="AF5" s="27"/>
       <c r="AG5" s="27"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
       <c r="AJ5" s="28"/>
       <c r="AK5" s="28"/>
-      <c r="AM5" s="67"/>
-    </row>
-    <row r="6" spans="1:39">
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AO5" s="69"/>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" s="47">
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="24">
         <v>0</v>
@@ -3036,34 +3098,40 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
+      <c r="V6" s="66">
+        <v>1</v>
+      </c>
+      <c r="W6" s="66">
+        <v>1</v>
+      </c>
       <c r="X6" s="23"/>
-      <c r="Y6" s="23">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="23"/>
       <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="23"/>
       <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
+      <c r="AD6" s="23">
+        <v>1</v>
+      </c>
       <c r="AE6" s="23"/>
       <c r="AF6" s="23"/>
       <c r="AG6" s="23"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
       <c r="AJ6" s="24"/>
       <c r="AK6" s="24"/>
-      <c r="AM6" s="27"/>
-    </row>
-    <row r="7" spans="1:39">
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AO6" s="27"/>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" s="27">
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="28">
         <v>0</v>
@@ -3138,34 +3206,40 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
+      <c r="V7" s="67">
+        <v>1</v>
+      </c>
+      <c r="W7" s="67">
+        <v>1</v>
+      </c>
       <c r="X7" s="27"/>
-      <c r="Y7" s="27">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="27"/>
       <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
+      <c r="AD7" s="27">
+        <v>1</v>
+      </c>
       <c r="AE7" s="27"/>
       <c r="AF7" s="27"/>
       <c r="AG7" s="27"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
       <c r="AJ7" s="28"/>
       <c r="AK7" s="28"/>
-      <c r="AM7" s="23"/>
-    </row>
-    <row r="8" spans="1:39">
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AO7" s="23"/>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" s="47">
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="24">
         <v>0</v>
@@ -3240,34 +3314,40 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
+      <c r="V8" s="66">
+        <v>1</v>
+      </c>
+      <c r="W8" s="66">
+        <v>1</v>
+      </c>
       <c r="X8" s="23"/>
-      <c r="Y8" s="23">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="23"/>
       <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="23"/>
       <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
+      <c r="AD8" s="23">
+        <v>1</v>
+      </c>
       <c r="AE8" s="23"/>
       <c r="AF8" s="23"/>
       <c r="AG8" s="23"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
+      <c r="AH8" s="23"/>
+      <c r="AI8" s="23"/>
       <c r="AJ8" s="24"/>
       <c r="AK8" s="24"/>
-      <c r="AM8" s="27"/>
-    </row>
-    <row r="9" spans="1:37">
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AO8" s="27"/>
+    </row>
+    <row r="9" spans="1:39">
       <c r="A9" s="27">
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="28">
         <v>0</v>
@@ -3342,33 +3422,39 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
+      <c r="V9" s="67">
+        <v>1</v>
+      </c>
+      <c r="W9" s="67">
+        <v>1</v>
+      </c>
       <c r="X9" s="27"/>
-      <c r="Y9" s="27">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="27"/>
       <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="27"/>
       <c r="AC9" s="27"/>
-      <c r="AD9" s="27"/>
+      <c r="AD9" s="27">
+        <v>1</v>
+      </c>
       <c r="AE9" s="27"/>
       <c r="AF9" s="27"/>
       <c r="AG9" s="27"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
       <c r="AJ9" s="28"/>
       <c r="AK9" s="28"/>
-    </row>
-    <row r="10" spans="1:37">
+      <c r="AL9" s="28"/>
+      <c r="AM9" s="28"/>
+    </row>
+    <row r="10" spans="1:39">
       <c r="A10" s="47">
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="24">
         <v>0</v>
@@ -3443,33 +3529,39 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
+      <c r="V10" s="66">
+        <v>1</v>
+      </c>
+      <c r="W10" s="66">
+        <v>1</v>
+      </c>
       <c r="X10" s="23"/>
-      <c r="Y10" s="23">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="23"/>
       <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="23"/>
       <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
+      <c r="AD10" s="23">
+        <v>1</v>
+      </c>
       <c r="AE10" s="23"/>
       <c r="AF10" s="23"/>
       <c r="AG10" s="23"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
       <c r="AJ10" s="24"/>
       <c r="AK10" s="24"/>
-    </row>
-    <row r="11" spans="1:37">
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+    </row>
+    <row r="11" spans="1:39">
       <c r="A11" s="27">
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="28">
         <v>0</v>
@@ -3544,33 +3636,39 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
+      <c r="V11" s="67">
+        <v>1</v>
+      </c>
+      <c r="W11" s="67">
+        <v>1</v>
+      </c>
       <c r="X11" s="27"/>
-      <c r="Y11" s="27">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="27"/>
       <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="27"/>
       <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
+      <c r="AD11" s="27">
+        <v>1</v>
+      </c>
       <c r="AE11" s="27"/>
       <c r="AF11" s="27"/>
       <c r="AG11" s="27"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
       <c r="AJ11" s="28"/>
       <c r="AK11" s="28"/>
-    </row>
-    <row r="12" spans="1:37">
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+    </row>
+    <row r="12" spans="1:39">
       <c r="A12" s="47">
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="24">
         <v>0</v>
@@ -3645,33 +3743,39 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
+      <c r="V12" s="66">
+        <v>1</v>
+      </c>
+      <c r="W12" s="66">
+        <v>1</v>
+      </c>
       <c r="X12" s="23"/>
-      <c r="Y12" s="23">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="23"/>
       <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="23"/>
       <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
+      <c r="AD12" s="23">
+        <v>1</v>
+      </c>
       <c r="AE12" s="23"/>
       <c r="AF12" s="23"/>
       <c r="AG12" s="23"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="23"/>
       <c r="AJ12" s="24"/>
       <c r="AK12" s="24"/>
-    </row>
-    <row r="13" spans="1:37">
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+    </row>
+    <row r="13" spans="1:39">
       <c r="A13" s="27">
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" s="28">
         <v>0</v>
@@ -3728,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R13" s="27" t="str">
         <f t="shared" si="12"/>
@@ -3746,8 +3850,10 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
+      <c r="V13" s="67">
+        <v>1</v>
+      </c>
+      <c r="W13" s="67"/>
       <c r="X13" s="27"/>
       <c r="Y13" s="27"/>
       <c r="Z13" s="27"/>
@@ -3755,24 +3861,26 @@
       <c r="AB13" s="27"/>
       <c r="AC13" s="27"/>
       <c r="AD13" s="27"/>
-      <c r="AE13" s="27">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="27">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="27">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="27"/>
       <c r="AJ13" s="28"/>
       <c r="AK13" s="28"/>
-    </row>
-    <row r="14" spans="1:37">
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+    </row>
+    <row r="14" spans="1:39">
       <c r="A14" s="47">
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="24">
         <v>0</v>
@@ -3829,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R14" s="23" t="str">
         <f t="shared" si="12"/>
@@ -3847,37 +3955,43 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
+      <c r="V14" s="66">
+        <v>1</v>
+      </c>
+      <c r="W14" s="66">
+        <v>1</v>
+      </c>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
-      <c r="Z14" s="23">
-        <v>1</v>
-      </c>
+      <c r="Z14" s="23"/>
       <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
+      <c r="AB14" s="23">
+        <v>1</v>
+      </c>
       <c r="AC14" s="23"/>
       <c r="AD14" s="23"/>
       <c r="AE14" s="23"/>
       <c r="AF14" s="23"/>
       <c r="AG14" s="23"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
+      <c r="AH14" s="23"/>
+      <c r="AI14" s="23"/>
       <c r="AJ14" s="24"/>
       <c r="AK14" s="24"/>
-    </row>
-    <row r="15" spans="1:37">
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+    </row>
+    <row r="15" spans="1:39">
       <c r="A15" s="27">
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" s="28">
         <v>2</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" s="28">
         <f t="shared" si="0"/>
@@ -3928,7 +4042,7 @@
         <v>X</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R15" s="27" t="str">
         <f t="shared" si="12"/>
@@ -3946,8 +4060,8 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
       <c r="X15" s="27"/>
       <c r="Y15" s="27"/>
       <c r="Z15" s="27"/>
@@ -3956,27 +4070,29 @@
       <c r="AC15" s="27"/>
       <c r="AD15" s="27"/>
       <c r="AE15" s="27"/>
-      <c r="AF15" s="27">
-        <v>1</v>
-      </c>
+      <c r="AF15" s="27"/>
       <c r="AG15" s="27"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
+      <c r="AH15" s="27">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="27"/>
       <c r="AJ15" s="28"/>
       <c r="AK15" s="28"/>
-    </row>
-    <row r="16" spans="1:37">
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+    </row>
+    <row r="16" spans="1:39">
       <c r="A16" s="47">
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="24">
         <v>3</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16" s="24">
         <f t="shared" si="0"/>
@@ -4027,7 +4143,7 @@
         <v>X</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R16" s="23" t="str">
         <f t="shared" si="12"/>
@@ -4045,41 +4161,43 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
       <c r="X16" s="23"/>
-      <c r="Y16" s="23">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
+      <c r="AA16" s="23">
+        <v>1</v>
+      </c>
       <c r="AB16" s="23"/>
       <c r="AC16" s="23"/>
       <c r="AD16" s="23"/>
       <c r="AE16" s="23"/>
-      <c r="AF16" s="23">
-        <v>1</v>
-      </c>
-      <c r="AG16" s="23">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="23">
+        <v>1</v>
+      </c>
       <c r="AJ16" s="24"/>
       <c r="AK16" s="24"/>
-    </row>
-    <row r="17" spans="1:37">
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+    </row>
+    <row r="17" spans="1:39">
       <c r="A17" s="27">
         <v>16</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="28">
         <v>4</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" s="28">
         <f t="shared" si="0"/>
@@ -4130,7 +4248,7 @@
         <v>X</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R17" s="27" t="str">
         <f t="shared" si="12"/>
@@ -4148,37 +4266,43 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
+      <c r="V17" s="67">
+        <v>1</v>
+      </c>
+      <c r="W17" s="67">
+        <v>1</v>
+      </c>
       <c r="X17" s="27"/>
       <c r="Y17" s="27"/>
       <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
       <c r="AB17" s="27"/>
-      <c r="AC17" s="27">
-        <v>1</v>
-      </c>
+      <c r="AC17" s="27"/>
       <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
+      <c r="AE17" s="27">
+        <v>1</v>
+      </c>
       <c r="AF17" s="27"/>
       <c r="AG17" s="27"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
       <c r="AJ17" s="28"/>
       <c r="AK17" s="28"/>
-    </row>
-    <row r="18" spans="1:37">
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+    </row>
+    <row r="18" spans="1:39">
       <c r="A18" s="47">
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="24">
         <v>5</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E18" s="24">
         <f t="shared" si="0"/>
@@ -4229,7 +4353,7 @@
         <v>X</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R18" s="23" t="str">
         <f t="shared" si="12"/>
@@ -4247,37 +4371,43 @@
         <f t="shared" si="15"/>
         <v>X</v>
       </c>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
+      <c r="V18" s="66">
+        <v>1</v>
+      </c>
+      <c r="W18" s="66">
+        <v>1</v>
+      </c>
       <c r="X18" s="23"/>
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="23"/>
       <c r="AB18" s="23"/>
       <c r="AC18" s="23"/>
-      <c r="AD18" s="23">
-        <v>1</v>
-      </c>
+      <c r="AD18" s="23"/>
       <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
+      <c r="AF18" s="23">
+        <v>1</v>
+      </c>
       <c r="AG18" s="23"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
       <c r="AJ18" s="24"/>
       <c r="AK18" s="24"/>
-    </row>
-    <row r="19" spans="1:37">
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+    </row>
+    <row r="19" spans="1:39">
       <c r="A19" s="27">
         <v>18</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" s="28">
         <v>8</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E19" s="28">
         <f t="shared" si="0"/>
@@ -4346,41 +4476,45 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="27"/>
+      <c r="V19" s="67">
+        <v>1</v>
+      </c>
+      <c r="W19" s="67"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27">
+        <v>1</v>
+      </c>
       <c r="AA19" s="27">
         <v>1</v>
       </c>
       <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
+      <c r="AC19" s="27">
+        <v>1</v>
+      </c>
       <c r="AD19" s="27"/>
       <c r="AE19" s="27"/>
       <c r="AF19" s="27"/>
       <c r="AG19" s="27"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
       <c r="AJ19" s="28"/>
       <c r="AK19" s="28"/>
-    </row>
-    <row r="20" spans="1:37">
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+    </row>
+    <row r="20" spans="1:39">
       <c r="A20" s="47">
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" s="24">
         <v>12</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="24">
         <f t="shared" si="0"/>
@@ -4449,39 +4583,43 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
+      <c r="V20" s="66">
+        <v>1</v>
+      </c>
+      <c r="W20" s="66"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="23">
+        <v>1</v>
+      </c>
       <c r="AB20" s="23"/>
       <c r="AC20" s="23"/>
       <c r="AD20" s="23"/>
       <c r="AE20" s="23"/>
       <c r="AF20" s="23"/>
       <c r="AG20" s="23"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
-    </row>
-    <row r="21" spans="1:37">
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24"/>
+    </row>
+    <row r="21" spans="1:39">
       <c r="A21" s="27">
         <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" s="28">
         <v>9</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" s="28">
         <f t="shared" si="0"/>
@@ -4550,41 +4688,45 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="27"/>
+      <c r="V21" s="67">
+        <v>1</v>
+      </c>
+      <c r="W21" s="67"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27">
+        <v>1</v>
+      </c>
       <c r="AA21" s="27">
         <v>1</v>
       </c>
       <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
+      <c r="AC21" s="27">
+        <v>1</v>
+      </c>
       <c r="AD21" s="27"/>
       <c r="AE21" s="27"/>
       <c r="AF21" s="27"/>
       <c r="AG21" s="27"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
       <c r="AJ21" s="28"/>
       <c r="AK21" s="28"/>
-    </row>
-    <row r="22" spans="1:37">
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+    </row>
+    <row r="22" spans="1:39">
       <c r="A22" s="47">
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C22" s="24">
         <v>10</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="24">
         <f t="shared" si="0"/>
@@ -4653,41 +4795,45 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="23"/>
+      <c r="V22" s="66">
+        <v>1</v>
+      </c>
+      <c r="W22" s="66"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23">
+        <v>1</v>
+      </c>
       <c r="AA22" s="23">
         <v>1</v>
       </c>
       <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
+      <c r="AC22" s="23">
+        <v>1</v>
+      </c>
       <c r="AD22" s="23"/>
       <c r="AE22" s="23"/>
       <c r="AF22" s="23"/>
       <c r="AG22" s="23"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
       <c r="AJ22" s="24"/>
       <c r="AK22" s="24"/>
-    </row>
-    <row r="23" spans="1:37">
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+    </row>
+    <row r="23" spans="1:39">
       <c r="A23" s="27">
         <v>22</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="28">
         <v>13</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="28">
         <f t="shared" si="0"/>
@@ -4756,39 +4902,43 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
+      <c r="V23" s="67">
+        <v>1</v>
+      </c>
+      <c r="W23" s="67"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="27">
+        <v>1</v>
+      </c>
       <c r="AB23" s="27"/>
       <c r="AC23" s="27"/>
       <c r="AD23" s="27"/>
       <c r="AE23" s="27"/>
       <c r="AF23" s="27"/>
       <c r="AG23" s="27"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
       <c r="AJ23" s="28"/>
       <c r="AK23" s="28"/>
-    </row>
-    <row r="24" spans="1:37">
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+    </row>
+    <row r="24" spans="1:39">
       <c r="A24" s="47">
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="24">
         <v>35</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" s="24">
         <f t="shared" si="0"/>
@@ -4857,43 +5007,47 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V24" s="23">
-        <v>1</v>
-      </c>
-      <c r="W24" s="23"/>
+      <c r="V24" s="66">
+        <v>1</v>
+      </c>
+      <c r="W24" s="66"/>
       <c r="X24" s="23">
         <v>1</v>
       </c>
-      <c r="Y24" s="23">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23">
+        <v>1</v>
+      </c>
       <c r="AA24" s="23">
         <v>1</v>
       </c>
       <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
+      <c r="AC24" s="23">
+        <v>1</v>
+      </c>
       <c r="AD24" s="23"/>
       <c r="AE24" s="23"/>
       <c r="AF24" s="23"/>
       <c r="AG24" s="23"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="24"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
       <c r="AJ24" s="24"/>
       <c r="AK24" s="24"/>
-    </row>
-    <row r="25" spans="1:37">
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="24"/>
+    </row>
+    <row r="25" spans="1:39">
       <c r="A25" s="27">
         <v>24</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="28">
         <v>43</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="28">
         <f t="shared" si="0"/>
@@ -4962,35 +5116,41 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27">
-        <v>1</v>
-      </c>
-      <c r="X25" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27">
-        <v>1</v>
-      </c>
+      <c r="V25" s="67">
+        <v>1</v>
+      </c>
+      <c r="W25" s="67">
+        <v>1</v>
+      </c>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="27"/>
       <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
+      <c r="AC25" s="27">
+        <v>1</v>
+      </c>
       <c r="AD25" s="27"/>
       <c r="AE25" s="27"/>
       <c r="AF25" s="27"/>
       <c r="AG25" s="27"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
       <c r="AJ25" s="28"/>
       <c r="AK25" s="28"/>
-    </row>
-    <row r="26" spans="1:39">
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26" s="27">
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" s="24">
         <v>0</v>
@@ -5065,43 +5225,49 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
+      <c r="V26" s="66">
+        <v>1</v>
+      </c>
+      <c r="W26" s="66">
+        <v>1</v>
+      </c>
       <c r="X26" s="23"/>
-      <c r="Y26" s="23">
-        <v>1</v>
-      </c>
+      <c r="Y26" s="23"/>
       <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23">
-        <v>1</v>
-      </c>
+      <c r="AA26" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="23"/>
       <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
+      <c r="AD26" s="23">
+        <v>1</v>
+      </c>
       <c r="AE26" s="23"/>
       <c r="AF26" s="23"/>
       <c r="AG26" s="23"/>
-      <c r="AH26" s="24">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="24"/>
-      <c r="AJ26" s="24"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="24">
+        <v>1</v>
+      </c>
       <c r="AK26" s="24"/>
       <c r="AL26" s="24"/>
       <c r="AM26" s="24"/>
-    </row>
-    <row r="27" spans="1:37">
+      <c r="AN26" s="24"/>
+      <c r="AO26" s="24"/>
+    </row>
+    <row r="27" spans="1:39">
       <c r="A27" s="27">
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" s="24">
         <v>14</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27" s="24">
         <f t="shared" si="0"/>
@@ -5170,40 +5336,46 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V27" s="27"/>
-      <c r="X27" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
+      <c r="V27" s="67">
+        <v>1</v>
+      </c>
+      <c r="W27" s="67">
+        <v>1</v>
+      </c>
+      <c r="X27" s="27"/>
+      <c r="Z27" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="27">
+        <v>1</v>
+      </c>
       <c r="AB27" s="27"/>
       <c r="AC27" s="27"/>
       <c r="AD27" s="27"/>
       <c r="AE27" s="27"/>
       <c r="AF27" s="27"/>
       <c r="AG27" s="27"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28">
-        <v>1</v>
-      </c>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="27"/>
       <c r="AJ27" s="28"/>
-      <c r="AK27" s="28"/>
-    </row>
-    <row r="28" spans="1:37">
+      <c r="AK27" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="28"/>
+    </row>
+    <row r="28" spans="1:39">
       <c r="A28" s="47">
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" s="24">
         <v>41</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E28" s="28">
         <f t="shared" si="0"/>
@@ -5272,43 +5444,47 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23">
-        <v>1</v>
-      </c>
-      <c r="X28" s="23">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23">
-        <v>1</v>
-      </c>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66">
+        <v>1</v>
+      </c>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="23"/>
       <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
+      <c r="AC28" s="23">
+        <v>1</v>
+      </c>
       <c r="AD28" s="23"/>
       <c r="AE28" s="23"/>
       <c r="AF28" s="23"/>
       <c r="AG28" s="23"/>
-      <c r="AH28" s="24"/>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="24">
-        <v>1</v>
-      </c>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="24"/>
       <c r="AK28" s="24"/>
-    </row>
-    <row r="29" spans="1:37">
+      <c r="AL28" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="24"/>
+    </row>
+    <row r="29" spans="1:39">
       <c r="A29" s="27">
         <v>28</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C29" s="24">
         <v>6</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E29" s="28">
         <f t="shared" si="0"/>
@@ -5377,8 +5553,10 @@
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
+      <c r="V29" s="67">
+        <v>1</v>
+      </c>
+      <c r="W29" s="67"/>
       <c r="X29" s="27"/>
       <c r="Y29" s="27"/>
       <c r="Z29" s="27"/>
@@ -5389,14 +5567,16 @@
       <c r="AE29" s="27"/>
       <c r="AF29" s="27"/>
       <c r="AG29" s="27"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
       <c r="AJ29" s="28"/>
-      <c r="AK29" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37">
+      <c r="AK29" s="28"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
       <c r="C30" s="24"/>
@@ -5430,12 +5610,14 @@
       <c r="AE30" s="27"/>
       <c r="AF30" s="27"/>
       <c r="AG30" s="27"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="27"/>
       <c r="AJ30" s="28"/>
       <c r="AK30" s="28"/>
-    </row>
-    <row r="31" spans="1:37">
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="28"/>
+    </row>
+    <row r="31" spans="1:39">
       <c r="A31" s="50"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
@@ -5457,24 +5639,26 @@
       <c r="S31" s="27"/>
       <c r="T31" s="27"/>
       <c r="U31" s="27"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
       <c r="AD31" s="27"/>
       <c r="AE31" s="27"/>
       <c r="AF31" s="27"/>
       <c r="AG31" s="27"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
       <c r="AJ31" s="28"/>
       <c r="AK31" s="28"/>
-    </row>
-    <row r="32" spans="1:37">
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="28"/>
+    </row>
+    <row r="32" spans="1:39">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
       <c r="C32" s="23"/>
@@ -5496,8 +5680,8 @@
       <c r="S32" s="61"/>
       <c r="T32" s="61"/>
       <c r="U32" s="61"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
       <c r="X32" s="23"/>
       <c r="Y32" s="23"/>
       <c r="Z32" s="23"/>
@@ -5508,12 +5692,14 @@
       <c r="AE32" s="23"/>
       <c r="AF32" s="23"/>
       <c r="AG32" s="23"/>
-      <c r="AH32" s="24"/>
-      <c r="AI32" s="24"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
       <c r="AJ32" s="24"/>
       <c r="AK32" s="24"/>
-    </row>
-    <row r="33" spans="1:37">
+      <c r="AL32" s="24"/>
+      <c r="AM32" s="24"/>
+    </row>
+    <row r="33" spans="1:39">
       <c r="A33" s="50"/>
       <c r="B33" s="50"/>
       <c r="C33" s="27"/>
@@ -5535,8 +5721,8 @@
       <c r="S33" s="63"/>
       <c r="T33" s="63"/>
       <c r="U33" s="63"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
       <c r="X33" s="27"/>
       <c r="Y33" s="27"/>
       <c r="Z33" s="27"/>
@@ -5547,12 +5733,14 @@
       <c r="AE33" s="27"/>
       <c r="AF33" s="27"/>
       <c r="AG33" s="27"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
       <c r="AJ33" s="28"/>
       <c r="AK33" s="28"/>
-    </row>
-    <row r="34" spans="1:37">
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+    </row>
+    <row r="34" spans="1:39">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
       <c r="C34" s="23"/>
@@ -5574,8 +5762,8 @@
       <c r="S34" s="61"/>
       <c r="T34" s="61"/>
       <c r="U34" s="61"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="61"/>
       <c r="X34" s="23"/>
       <c r="Y34" s="23"/>
       <c r="Z34" s="23"/>
@@ -5586,12 +5774,14 @@
       <c r="AE34" s="23"/>
       <c r="AF34" s="23"/>
       <c r="AG34" s="23"/>
-      <c r="AH34" s="24"/>
-      <c r="AI34" s="24"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
       <c r="AJ34" s="24"/>
       <c r="AK34" s="24"/>
-    </row>
-    <row r="35" spans="1:37">
+      <c r="AL34" s="24"/>
+      <c r="AM34" s="24"/>
+    </row>
+    <row r="35" spans="1:39">
       <c r="A35" s="50"/>
       <c r="B35" s="50"/>
       <c r="C35" s="27"/>
@@ -5613,8 +5803,8 @@
       <c r="S35" s="63"/>
       <c r="T35" s="63"/>
       <c r="U35" s="63"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
       <c r="X35" s="27"/>
       <c r="Y35" s="27"/>
       <c r="Z35" s="27"/>
@@ -5625,12 +5815,14 @@
       <c r="AE35" s="27"/>
       <c r="AF35" s="27"/>
       <c r="AG35" s="27"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
+      <c r="AH35" s="27"/>
+      <c r="AI35" s="27"/>
       <c r="AJ35" s="28"/>
       <c r="AK35" s="28"/>
-    </row>
-    <row r="36" spans="1:37">
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="28"/>
+    </row>
+    <row r="36" spans="1:39">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
       <c r="C36" s="23"/>
@@ -5652,8 +5844,8 @@
       <c r="S36" s="61"/>
       <c r="T36" s="61"/>
       <c r="U36" s="61"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="61"/>
       <c r="X36" s="23"/>
       <c r="Y36" s="23"/>
       <c r="Z36" s="23"/>
@@ -5664,12 +5856,14 @@
       <c r="AE36" s="23"/>
       <c r="AF36" s="23"/>
       <c r="AG36" s="23"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
       <c r="AJ36" s="24"/>
       <c r="AK36" s="24"/>
-    </row>
-    <row r="37" spans="1:37">
+      <c r="AL36" s="24"/>
+      <c r="AM36" s="24"/>
+    </row>
+    <row r="37" spans="1:39">
       <c r="A37" s="50"/>
       <c r="B37" s="50"/>
       <c r="C37" s="27"/>
@@ -5691,8 +5885,8 @@
       <c r="S37" s="63"/>
       <c r="T37" s="63"/>
       <c r="U37" s="63"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
       <c r="X37" s="27"/>
       <c r="Y37" s="27"/>
       <c r="Z37" s="27"/>
@@ -5703,12 +5897,14 @@
       <c r="AE37" s="27"/>
       <c r="AF37" s="27"/>
       <c r="AG37" s="27"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="28"/>
+      <c r="AH37" s="27"/>
+      <c r="AI37" s="27"/>
       <c r="AJ37" s="28"/>
       <c r="AK37" s="28"/>
-    </row>
-    <row r="38" spans="1:37">
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="28"/>
+    </row>
+    <row r="38" spans="1:39">
       <c r="A38" s="48"/>
       <c r="B38" s="49"/>
       <c r="C38" s="23"/>
@@ -5730,8 +5926,8 @@
       <c r="S38" s="61"/>
       <c r="T38" s="61"/>
       <c r="U38" s="61"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
+      <c r="V38" s="61"/>
+      <c r="W38" s="61"/>
       <c r="X38" s="23"/>
       <c r="Y38" s="23"/>
       <c r="Z38" s="23"/>
@@ -5742,12 +5938,14 @@
       <c r="AE38" s="23"/>
       <c r="AF38" s="23"/>
       <c r="AG38" s="23"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
       <c r="AJ38" s="24"/>
       <c r="AK38" s="24"/>
-    </row>
-    <row r="39" spans="1:37">
+      <c r="AL38" s="24"/>
+      <c r="AM38" s="24"/>
+    </row>
+    <row r="39" spans="1:39">
       <c r="A39" s="50"/>
       <c r="B39" s="50"/>
       <c r="C39" s="27"/>
@@ -5769,8 +5967,8 @@
       <c r="S39" s="63"/>
       <c r="T39" s="63"/>
       <c r="U39" s="63"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
       <c r="X39" s="27"/>
       <c r="Y39" s="27"/>
       <c r="Z39" s="27"/>
@@ -5781,12 +5979,14 @@
       <c r="AE39" s="27"/>
       <c r="AF39" s="27"/>
       <c r="AG39" s="27"/>
-      <c r="AH39" s="28"/>
-      <c r="AI39" s="28"/>
+      <c r="AH39" s="27"/>
+      <c r="AI39" s="27"/>
       <c r="AJ39" s="28"/>
       <c r="AK39" s="28"/>
-    </row>
-    <row r="40" spans="1:37">
+      <c r="AL39" s="28"/>
+      <c r="AM39" s="28"/>
+    </row>
+    <row r="40" spans="1:39">
       <c r="A40" s="48"/>
       <c r="B40" s="49"/>
       <c r="C40" s="23"/>
@@ -5808,8 +6008,8 @@
       <c r="S40" s="61"/>
       <c r="T40" s="61"/>
       <c r="U40" s="61"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
+      <c r="V40" s="61"/>
+      <c r="W40" s="61"/>
       <c r="X40" s="23"/>
       <c r="Y40" s="23"/>
       <c r="Z40" s="23"/>
@@ -5820,12 +6020,14 @@
       <c r="AE40" s="23"/>
       <c r="AF40" s="23"/>
       <c r="AG40" s="23"/>
-      <c r="AH40" s="24"/>
-      <c r="AI40" s="24"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
       <c r="AJ40" s="24"/>
       <c r="AK40" s="24"/>
-    </row>
-    <row r="41" spans="1:37">
+      <c r="AL40" s="24"/>
+      <c r="AM40" s="24"/>
+    </row>
+    <row r="41" spans="1:39">
       <c r="A41" s="50"/>
       <c r="B41" s="50"/>
       <c r="C41" s="27"/>
@@ -5847,8 +6049,8 @@
       <c r="S41" s="63"/>
       <c r="T41" s="63"/>
       <c r="U41" s="63"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
       <c r="X41" s="27"/>
       <c r="Y41" s="27"/>
       <c r="Z41" s="27"/>
@@ -5859,12 +6061,14 @@
       <c r="AE41" s="27"/>
       <c r="AF41" s="27"/>
       <c r="AG41" s="27"/>
-      <c r="AH41" s="28"/>
-      <c r="AI41" s="28"/>
+      <c r="AH41" s="27"/>
+      <c r="AI41" s="27"/>
       <c r="AJ41" s="28"/>
       <c r="AK41" s="28"/>
-    </row>
-    <row r="42" spans="1:37">
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="28"/>
+    </row>
+    <row r="42" spans="1:39">
       <c r="A42" s="48"/>
       <c r="B42" s="49"/>
       <c r="C42" s="23"/>
@@ -5886,8 +6090,8 @@
       <c r="S42" s="61"/>
       <c r="T42" s="61"/>
       <c r="U42" s="61"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
+      <c r="V42" s="61"/>
+      <c r="W42" s="61"/>
       <c r="X42" s="23"/>
       <c r="Y42" s="23"/>
       <c r="Z42" s="23"/>
@@ -5898,12 +6102,14 @@
       <c r="AE42" s="23"/>
       <c r="AF42" s="23"/>
       <c r="AG42" s="23"/>
-      <c r="AH42" s="24"/>
-      <c r="AI42" s="24"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
       <c r="AJ42" s="24"/>
       <c r="AK42" s="24"/>
-    </row>
-    <row r="43" spans="1:37">
+      <c r="AL42" s="24"/>
+      <c r="AM42" s="24"/>
+    </row>
+    <row r="43" spans="1:39">
       <c r="A43" s="50"/>
       <c r="B43" s="50"/>
       <c r="C43" s="27"/>
@@ -5925,8 +6131,8 @@
       <c r="S43" s="63"/>
       <c r="T43" s="63"/>
       <c r="U43" s="63"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
       <c r="X43" s="27"/>
       <c r="Y43" s="27"/>
       <c r="Z43" s="27"/>
@@ -5937,12 +6143,14 @@
       <c r="AE43" s="27"/>
       <c r="AF43" s="27"/>
       <c r="AG43" s="27"/>
-      <c r="AH43" s="28"/>
-      <c r="AI43" s="28"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
       <c r="AJ43" s="28"/>
       <c r="AK43" s="28"/>
-    </row>
-    <row r="44" spans="1:37">
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="28"/>
+    </row>
+    <row r="44" spans="1:39">
       <c r="A44" s="48"/>
       <c r="B44" s="49"/>
       <c r="C44" s="23"/>
@@ -5964,8 +6172,8 @@
       <c r="S44" s="61"/>
       <c r="T44" s="61"/>
       <c r="U44" s="61"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
+      <c r="V44" s="61"/>
+      <c r="W44" s="61"/>
       <c r="X44" s="23"/>
       <c r="Y44" s="23"/>
       <c r="Z44" s="23"/>
@@ -5976,12 +6184,14 @@
       <c r="AE44" s="23"/>
       <c r="AF44" s="23"/>
       <c r="AG44" s="23"/>
-      <c r="AH44" s="24"/>
-      <c r="AI44" s="24"/>
+      <c r="AH44" s="23"/>
+      <c r="AI44" s="23"/>
       <c r="AJ44" s="24"/>
       <c r="AK44" s="24"/>
-    </row>
-    <row r="45" spans="1:37">
+      <c r="AL44" s="24"/>
+      <c r="AM44" s="24"/>
+    </row>
+    <row r="45" spans="1:39">
       <c r="A45" s="50"/>
       <c r="B45" s="50"/>
       <c r="C45" s="27"/>
@@ -6003,8 +6213,8 @@
       <c r="S45" s="63"/>
       <c r="T45" s="63"/>
       <c r="U45" s="63"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
       <c r="X45" s="27"/>
       <c r="Y45" s="27"/>
       <c r="Z45" s="27"/>
@@ -6015,12 +6225,14 @@
       <c r="AE45" s="27"/>
       <c r="AF45" s="27"/>
       <c r="AG45" s="27"/>
-      <c r="AH45" s="28"/>
-      <c r="AI45" s="28"/>
+      <c r="AH45" s="27"/>
+      <c r="AI45" s="27"/>
       <c r="AJ45" s="28"/>
       <c r="AK45" s="28"/>
-    </row>
-    <row r="46" spans="1:37">
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="28"/>
+    </row>
+    <row r="46" spans="1:39">
       <c r="A46" s="48"/>
       <c r="B46" s="49"/>
       <c r="C46" s="23"/>
@@ -6042,8 +6254,8 @@
       <c r="S46" s="61"/>
       <c r="T46" s="61"/>
       <c r="U46" s="61"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
       <c r="X46" s="23"/>
       <c r="Y46" s="23"/>
       <c r="Z46" s="23"/>
@@ -6054,12 +6266,14 @@
       <c r="AE46" s="23"/>
       <c r="AF46" s="23"/>
       <c r="AG46" s="23"/>
-      <c r="AH46" s="24"/>
-      <c r="AI46" s="24"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
       <c r="AJ46" s="24"/>
       <c r="AK46" s="24"/>
-    </row>
-    <row r="47" spans="1:37">
+      <c r="AL46" s="24"/>
+      <c r="AM46" s="24"/>
+    </row>
+    <row r="47" spans="1:39">
       <c r="A47" s="50"/>
       <c r="B47" s="50"/>
       <c r="C47" s="27"/>
@@ -6081,8 +6295,8 @@
       <c r="S47" s="63"/>
       <c r="T47" s="63"/>
       <c r="U47" s="63"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
+      <c r="V47" s="63"/>
+      <c r="W47" s="63"/>
       <c r="X47" s="27"/>
       <c r="Y47" s="27"/>
       <c r="Z47" s="27"/>
@@ -6093,12 +6307,14 @@
       <c r="AE47" s="27"/>
       <c r="AF47" s="27"/>
       <c r="AG47" s="27"/>
-      <c r="AH47" s="28"/>
-      <c r="AI47" s="28"/>
+      <c r="AH47" s="27"/>
+      <c r="AI47" s="27"/>
       <c r="AJ47" s="28"/>
       <c r="AK47" s="28"/>
-    </row>
-    <row r="48" spans="1:37">
+      <c r="AL47" s="28"/>
+      <c r="AM47" s="28"/>
+    </row>
+    <row r="48" spans="1:39">
       <c r="A48" s="48"/>
       <c r="B48" s="49"/>
       <c r="C48" s="23"/>
@@ -6120,8 +6336,8 @@
       <c r="S48" s="61"/>
       <c r="T48" s="61"/>
       <c r="U48" s="61"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="61"/>
       <c r="X48" s="23"/>
       <c r="Y48" s="23"/>
       <c r="Z48" s="23"/>
@@ -6132,12 +6348,14 @@
       <c r="AE48" s="23"/>
       <c r="AF48" s="23"/>
       <c r="AG48" s="23"/>
-      <c r="AH48" s="24"/>
-      <c r="AI48" s="24"/>
+      <c r="AH48" s="23"/>
+      <c r="AI48" s="23"/>
       <c r="AJ48" s="24"/>
       <c r="AK48" s="24"/>
-    </row>
-    <row r="49" spans="1:37">
+      <c r="AL48" s="24"/>
+      <c r="AM48" s="24"/>
+    </row>
+    <row r="49" spans="1:39">
       <c r="A49" s="50"/>
       <c r="B49" s="50"/>
       <c r="C49" s="27"/>
@@ -6159,8 +6377,8 @@
       <c r="S49" s="63"/>
       <c r="T49" s="63"/>
       <c r="U49" s="63"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
       <c r="X49" s="27"/>
       <c r="Y49" s="27"/>
       <c r="Z49" s="27"/>
@@ -6171,12 +6389,14 @@
       <c r="AE49" s="27"/>
       <c r="AF49" s="27"/>
       <c r="AG49" s="27"/>
-      <c r="AH49" s="28"/>
-      <c r="AI49" s="28"/>
+      <c r="AH49" s="27"/>
+      <c r="AI49" s="27"/>
       <c r="AJ49" s="28"/>
       <c r="AK49" s="28"/>
-    </row>
-    <row r="50" spans="1:37">
+      <c r="AL49" s="28"/>
+      <c r="AM49" s="28"/>
+    </row>
+    <row r="50" spans="1:39">
       <c r="A50" s="48"/>
       <c r="B50" s="49"/>
       <c r="C50" s="23"/>
@@ -6198,8 +6418,8 @@
       <c r="S50" s="61"/>
       <c r="T50" s="61"/>
       <c r="U50" s="61"/>
-      <c r="V50" s="23"/>
-      <c r="W50" s="23"/>
+      <c r="V50" s="61"/>
+      <c r="W50" s="61"/>
       <c r="X50" s="23"/>
       <c r="Y50" s="23"/>
       <c r="Z50" s="23"/>
@@ -6210,12 +6430,14 @@
       <c r="AE50" s="23"/>
       <c r="AF50" s="23"/>
       <c r="AG50" s="23"/>
-      <c r="AH50" s="24"/>
-      <c r="AI50" s="24"/>
+      <c r="AH50" s="23"/>
+      <c r="AI50" s="23"/>
       <c r="AJ50" s="24"/>
       <c r="AK50" s="24"/>
-    </row>
-    <row r="51" spans="1:37">
+      <c r="AL50" s="24"/>
+      <c r="AM50" s="24"/>
+    </row>
+    <row r="51" spans="1:39">
       <c r="A51" s="50"/>
       <c r="B51" s="50"/>
       <c r="C51" s="27"/>
@@ -6237,8 +6459,8 @@
       <c r="S51" s="63"/>
       <c r="T51" s="63"/>
       <c r="U51" s="63"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
+      <c r="V51" s="63"/>
+      <c r="W51" s="63"/>
       <c r="X51" s="27"/>
       <c r="Y51" s="27"/>
       <c r="Z51" s="27"/>
@@ -6249,12 +6471,14 @@
       <c r="AE51" s="27"/>
       <c r="AF51" s="27"/>
       <c r="AG51" s="27"/>
-      <c r="AH51" s="28"/>
-      <c r="AI51" s="28"/>
+      <c r="AH51" s="27"/>
+      <c r="AI51" s="27"/>
       <c r="AJ51" s="28"/>
       <c r="AK51" s="28"/>
-    </row>
-    <row r="52" spans="1:37">
+      <c r="AL51" s="28"/>
+      <c r="AM51" s="28"/>
+    </row>
+    <row r="52" spans="1:39">
       <c r="A52" s="48"/>
       <c r="B52" s="49"/>
       <c r="C52" s="23"/>
@@ -6276,8 +6500,8 @@
       <c r="S52" s="61"/>
       <c r="T52" s="61"/>
       <c r="U52" s="61"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
+      <c r="V52" s="61"/>
+      <c r="W52" s="61"/>
       <c r="X52" s="23"/>
       <c r="Y52" s="23"/>
       <c r="Z52" s="23"/>
@@ -6288,12 +6512,14 @@
       <c r="AE52" s="23"/>
       <c r="AF52" s="23"/>
       <c r="AG52" s="23"/>
-      <c r="AH52" s="24"/>
-      <c r="AI52" s="24"/>
+      <c r="AH52" s="23"/>
+      <c r="AI52" s="23"/>
       <c r="AJ52" s="24"/>
       <c r="AK52" s="24"/>
-    </row>
-    <row r="53" spans="1:37">
+      <c r="AL52" s="24"/>
+      <c r="AM52" s="24"/>
+    </row>
+    <row r="53" spans="1:39">
       <c r="A53" s="50"/>
       <c r="B53" s="50"/>
       <c r="C53" s="27"/>
@@ -6315,8 +6541,8 @@
       <c r="S53" s="63"/>
       <c r="T53" s="63"/>
       <c r="U53" s="63"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
+      <c r="V53" s="63"/>
+      <c r="W53" s="63"/>
       <c r="X53" s="27"/>
       <c r="Y53" s="27"/>
       <c r="Z53" s="27"/>
@@ -6327,12 +6553,14 @@
       <c r="AE53" s="27"/>
       <c r="AF53" s="27"/>
       <c r="AG53" s="27"/>
-      <c r="AH53" s="28"/>
-      <c r="AI53" s="28"/>
+      <c r="AH53" s="27"/>
+      <c r="AI53" s="27"/>
       <c r="AJ53" s="28"/>
       <c r="AK53" s="28"/>
-    </row>
-    <row r="54" spans="1:37">
+      <c r="AL53" s="28"/>
+      <c r="AM53" s="28"/>
+    </row>
+    <row r="54" spans="1:39">
       <c r="A54" s="48"/>
       <c r="B54" s="49"/>
       <c r="C54" s="23"/>
@@ -6354,8 +6582,8 @@
       <c r="S54" s="61"/>
       <c r="T54" s="61"/>
       <c r="U54" s="61"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
+      <c r="V54" s="61"/>
+      <c r="W54" s="61"/>
       <c r="X54" s="23"/>
       <c r="Y54" s="23"/>
       <c r="Z54" s="23"/>
@@ -6366,12 +6594,14 @@
       <c r="AE54" s="23"/>
       <c r="AF54" s="23"/>
       <c r="AG54" s="23"/>
-      <c r="AH54" s="24"/>
-      <c r="AI54" s="24"/>
+      <c r="AH54" s="23"/>
+      <c r="AI54" s="23"/>
       <c r="AJ54" s="24"/>
       <c r="AK54" s="24"/>
-    </row>
-    <row r="55" spans="1:37">
+      <c r="AL54" s="24"/>
+      <c r="AM54" s="24"/>
+    </row>
+    <row r="55" spans="1:39">
       <c r="A55" s="50"/>
       <c r="B55" s="50"/>
       <c r="C55" s="27"/>
@@ -6393,8 +6623,8 @@
       <c r="S55" s="63"/>
       <c r="T55" s="63"/>
       <c r="U55" s="63"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
       <c r="X55" s="27"/>
       <c r="Y55" s="27"/>
       <c r="Z55" s="27"/>
@@ -6405,12 +6635,14 @@
       <c r="AE55" s="27"/>
       <c r="AF55" s="27"/>
       <c r="AG55" s="27"/>
-      <c r="AH55" s="28"/>
-      <c r="AI55" s="28"/>
+      <c r="AH55" s="27"/>
+      <c r="AI55" s="27"/>
       <c r="AJ55" s="28"/>
       <c r="AK55" s="28"/>
-    </row>
-    <row r="56" spans="1:37">
+      <c r="AL55" s="28"/>
+      <c r="AM55" s="28"/>
+    </row>
+    <row r="56" spans="1:39">
       <c r="A56" s="48"/>
       <c r="B56" s="49"/>
       <c r="C56" s="23"/>
@@ -6432,8 +6664,8 @@
       <c r="S56" s="61"/>
       <c r="T56" s="61"/>
       <c r="U56" s="61"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
       <c r="X56" s="23"/>
       <c r="Y56" s="23"/>
       <c r="Z56" s="23"/>
@@ -6444,12 +6676,14 @@
       <c r="AE56" s="23"/>
       <c r="AF56" s="23"/>
       <c r="AG56" s="23"/>
-      <c r="AH56" s="24"/>
-      <c r="AI56" s="24"/>
+      <c r="AH56" s="23"/>
+      <c r="AI56" s="23"/>
       <c r="AJ56" s="24"/>
       <c r="AK56" s="24"/>
-    </row>
-    <row r="57" spans="1:37">
+      <c r="AL56" s="24"/>
+      <c r="AM56" s="24"/>
+    </row>
+    <row r="57" spans="1:39">
       <c r="A57" s="50"/>
       <c r="B57" s="50"/>
       <c r="C57" s="27"/>
@@ -6471,8 +6705,8 @@
       <c r="S57" s="63"/>
       <c r="T57" s="63"/>
       <c r="U57" s="63"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
+      <c r="V57" s="63"/>
+      <c r="W57" s="63"/>
       <c r="X57" s="27"/>
       <c r="Y57" s="27"/>
       <c r="Z57" s="27"/>
@@ -6483,12 +6717,14 @@
       <c r="AE57" s="27"/>
       <c r="AF57" s="27"/>
       <c r="AG57" s="27"/>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="28"/>
+      <c r="AH57" s="27"/>
+      <c r="AI57" s="27"/>
       <c r="AJ57" s="28"/>
       <c r="AK57" s="28"/>
-    </row>
-    <row r="58" spans="1:37">
+      <c r="AL57" s="28"/>
+      <c r="AM57" s="28"/>
+    </row>
+    <row r="58" spans="1:39">
       <c r="A58" s="48"/>
       <c r="B58" s="49"/>
       <c r="C58" s="23"/>
@@ -6510,8 +6746,8 @@
       <c r="S58" s="61"/>
       <c r="T58" s="61"/>
       <c r="U58" s="61"/>
-      <c r="V58" s="23"/>
-      <c r="W58" s="23"/>
+      <c r="V58" s="61"/>
+      <c r="W58" s="61"/>
       <c r="X58" s="23"/>
       <c r="Y58" s="23"/>
       <c r="Z58" s="23"/>
@@ -6522,12 +6758,14 @@
       <c r="AE58" s="23"/>
       <c r="AF58" s="23"/>
       <c r="AG58" s="23"/>
-      <c r="AH58" s="24"/>
-      <c r="AI58" s="24"/>
+      <c r="AH58" s="23"/>
+      <c r="AI58" s="23"/>
       <c r="AJ58" s="24"/>
       <c r="AK58" s="24"/>
-    </row>
-    <row r="59" spans="1:37">
+      <c r="AL58" s="24"/>
+      <c r="AM58" s="24"/>
+    </row>
+    <row r="59" spans="1:39">
       <c r="A59" s="50"/>
       <c r="B59" s="50"/>
       <c r="C59" s="27"/>
@@ -6549,8 +6787,8 @@
       <c r="S59" s="63"/>
       <c r="T59" s="63"/>
       <c r="U59" s="63"/>
-      <c r="V59" s="27"/>
-      <c r="W59" s="27"/>
+      <c r="V59" s="63"/>
+      <c r="W59" s="63"/>
       <c r="X59" s="27"/>
       <c r="Y59" s="27"/>
       <c r="Z59" s="27"/>
@@ -6561,12 +6799,14 @@
       <c r="AE59" s="27"/>
       <c r="AF59" s="27"/>
       <c r="AG59" s="27"/>
-      <c r="AH59" s="28"/>
-      <c r="AI59" s="28"/>
+      <c r="AH59" s="27"/>
+      <c r="AI59" s="27"/>
       <c r="AJ59" s="28"/>
       <c r="AK59" s="28"/>
-    </row>
-    <row r="60" spans="1:37">
+      <c r="AL59" s="28"/>
+      <c r="AM59" s="28"/>
+    </row>
+    <row r="60" spans="1:39">
       <c r="A60" s="48"/>
       <c r="B60" s="49"/>
       <c r="C60" s="23"/>
@@ -6588,8 +6828,8 @@
       <c r="S60" s="61"/>
       <c r="T60" s="61"/>
       <c r="U60" s="61"/>
-      <c r="V60" s="23"/>
-      <c r="W60" s="23"/>
+      <c r="V60" s="61"/>
+      <c r="W60" s="61"/>
       <c r="X60" s="23"/>
       <c r="Y60" s="23"/>
       <c r="Z60" s="23"/>
@@ -6600,12 +6840,14 @@
       <c r="AE60" s="23"/>
       <c r="AF60" s="23"/>
       <c r="AG60" s="23"/>
-      <c r="AH60" s="24"/>
-      <c r="AI60" s="24"/>
+      <c r="AH60" s="23"/>
+      <c r="AI60" s="23"/>
       <c r="AJ60" s="24"/>
       <c r="AK60" s="24"/>
-    </row>
-    <row r="61" spans="1:37">
+      <c r="AL60" s="24"/>
+      <c r="AM60" s="24"/>
+    </row>
+    <row r="61" spans="1:39">
       <c r="A61" s="50"/>
       <c r="B61" s="50"/>
       <c r="C61" s="27"/>
@@ -6627,8 +6869,8 @@
       <c r="S61" s="63"/>
       <c r="T61" s="63"/>
       <c r="U61" s="63"/>
-      <c r="V61" s="27"/>
-      <c r="W61" s="27"/>
+      <c r="V61" s="63"/>
+      <c r="W61" s="63"/>
       <c r="X61" s="27"/>
       <c r="Y61" s="27"/>
       <c r="Z61" s="27"/>
@@ -6639,171 +6881,178 @@
       <c r="AE61" s="27"/>
       <c r="AF61" s="27"/>
       <c r="AG61" s="27"/>
-      <c r="AH61" s="28"/>
-      <c r="AI61" s="28"/>
+      <c r="AH61" s="27"/>
+      <c r="AI61" s="27"/>
       <c r="AJ61" s="28"/>
       <c r="AK61" s="28"/>
+      <c r="AL61" s="28"/>
+      <c r="AM61" s="28"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A1:D25 AM5:AM8 A27:D30 A31 A32:D1048576 B31:D31" name="区域1"/>
+    <protectedRange sqref="A1:D25 AO5:AO8 A27:D30 A31 A32:D1048576 B31:D31" name="区域1"/>
     <protectedRange sqref="A26:D26" name="区域1_1"/>
   </protectedRanges>
-  <conditionalFormatting sqref="AG1">
-    <cfRule type="cellIs" priority="25" operator="notEqual">
+  <conditionalFormatting sqref="AI1">
+    <cfRule type="cellIs" priority="26" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AI1">
-    <cfRule type="cellIs" priority="22" operator="notEqual">
+  <conditionalFormatting sqref="AJ1:AK1">
+    <cfRule type="cellIs" priority="23" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ1">
+  <conditionalFormatting sqref="AL1">
+    <cfRule type="cellIs" priority="18" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM1">
     <cfRule type="cellIs" priority="17" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK1">
-    <cfRule type="cellIs" priority="16" operator="notEqual">
-      <formula>0</formula>
+  <conditionalFormatting sqref="Q26">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q26">
+  <conditionalFormatting sqref="R26:U26">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X26:AI26">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R26:U26">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V26:AG26">
+  <conditionalFormatting sqref="AJ26:AK26">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH26:AI26">
+  <conditionalFormatting sqref="AL26:AM26">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ26:AK26">
+  <conditionalFormatting sqref="AN26:AO26">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC27">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI30">
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31:W31">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X31:AC31">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:Q29">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:AH1 X62:AI1048576">
+    <cfRule type="cellIs" priority="47" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:U25 Q30:AH30 R27:U29">
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V13:W24 V25:W29 V2:W12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:AI25">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL26:AM26">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+  <conditionalFormatting sqref="AJ2:AK25 AJ30:AK30">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA27">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="AL2:AM25 AL30:AM30">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG30">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+  <conditionalFormatting sqref="Z27:AB27 X27">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q31:U31">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+  <conditionalFormatting sqref="AD27:AI27 X28:AI29">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V31:AA31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="AJ27:AK29">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:Q29">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:AF1 V62:AG1048576">
-    <cfRule type="cellIs" priority="46" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:U25 R27:U29 Q30:AF30">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V13:AG24 V25:AG25 V2:AG12">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AI25 AH30:AI30">
+  <conditionalFormatting sqref="AL27:AM29">
     <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AK25 AJ30:AK30">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27:Z27 V27">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB27:AG27 V28:AG29">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH27:AI29">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27:AK29">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB31:AG31 V32:AG61">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31:AI61">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+  <conditionalFormatting sqref="AD31:AI31 X32:AI61">
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ31:AK61">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH62:AI1048576">
-    <cfRule type="cellIs" priority="40" operator="notEqual">
+  <conditionalFormatting sqref="AL31:AM61">
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ62:AK1048576">
+    <cfRule type="cellIs" priority="41" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ62:AK1048576">
-    <cfRule type="cellIs" priority="37" operator="notEqual">
+  <conditionalFormatting sqref="AL62:AM1048576">
+    <cfRule type="cellIs" priority="38" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入MIPS指令字的OpCode的十进制数，后续隐藏列会自动生成OpCode字段6位的二进制位" sqref="C26 C31 C1:C25 C27:C30 C32:C1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位&#10;" sqref="R21 S21 T21 U21 R22 S22 T22 U22 R23 S23 T23 U23 R24 S24 T24 U24 R25 S25 T25 U25 R26 S26 T26 U26 R27 S27 T27 U27 R28 S28 T28 U28 R29 S29 T29 U29 R30 S30 T30 U30 R31 S31 T31 U31 R2:U20 R32:U61"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位&#10;" sqref="R21 S21 T21 U21 R22 S22 T22 U22 R23 S23 T23 U23 R24 S24 T24 U24 R25 S25 T25 U25 R26 S26 T26 U26 R27 S27 T27 U27 R28 S28 T28 U28 R29 S29 T29 U29 R30 S30 T30 U30 V30 W30 R31 S31 T31 U31 V31 W31 V32:V61 W32:W61 R2:U20 R32:U61 V2:W29"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALU运算选择信号" prompt="请输入当前指令的AluOp十进制编码，后续隐藏列会自动生成对应的二进制位，如不需要使用ALU可以输入&quot;X&quot;" sqref="Q21 Q22 Q23 Q24 Q25 Q26 Q27 Q28 Q29 Q30 Q31 Q1:Q20 Q32:Q1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="K21 L21 M21 N21 O21 P21 K22 L22 M22 N22 O22 P22 K23 L23 M23 N23 O23 P23 K24 L24 M24 N24 O24 P24 K25 L25 M25 N25 O25 P25 K26 L26 M26 N26 O26 P26 K27 L27 M27 N27 O27 P27 K28 L28 M28 N28 O28 P28 K29 L29 M29 N29 O29 P29 K30:P30 K31 L31 M31 N31 O31 P31 K1:P20 K32:P1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FUNC(十进制)" prompt="输入MIPS指令字的Func字段的10进制数，无Func字段填&quot;X&quot;，后续隐藏列会自动生成Func字段6位的二进制位" sqref="D26 D31 D1:D25 D27:D30 D32:D1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="E21 F21 G21 H21 I21 J21 E22 F22 G22 H22 I22 J22 E23 F23 G23 H23 I23 J23 E24 F24 G24 H24 I24 J24 E25 F25 G25 H25 I25 J25 E26 F26 G26 H26 I26 J26 E27 F27 G27 H27 I27 J27 E28 F28 G28 H28 I28 J28 E29 F29 G29 H29 I29 J29 E30:J30 E31 F31 G31 H31 I31 J31 E1:J20 E32:J1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B26 B31 B1:B25 B27:B30 B32:B1048576 AM5:AM8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填&#10;&#10;输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="V1:AF1 AG1:AK1 AH21 AI21 AJ21 AK21 AH22 AI22 AJ22 AK22 AH23 AI23 AJ23 AK23 AH24 AI24 AJ24 AK24 AH25 AI25 AJ25 AK25 V26 W26 X26 Y26 Z26 AA26 AB26 AC26 AD26 AE26 AF26 AG26 AH26 AI26 AJ26 AK26 AL26:AM26 V27 X27 Y27 Z27 AA27 AB27 AC27 AD27 AE27 AF27 AG27 AH27 AI27 AJ27 AK27 V28 W28 X28 Y28 Z28 AA28 AB28 AC28 AD28 AE28 AF28 AG28 AH28 AI28 AJ28 AK28 V29 W29 X29 Y29 Z29 AA29 AB29 AC29 AD29 AE29 AF29 AG29 AH29 AI29 AJ29 AK29 V30 W30 X30 Y30 Z30 AA30 AB30 AC30 AD30 AE30 AF30 AG30 AH30 AI30 AJ30 AK30 V31:AA31 AB31:AK31 AH2:AK20 V2:AG25 V32:AK1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="R1:U1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B26 B31 B1:B25 B27:B30 B32:B1048576 AO5:AO8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填&#10;&#10;输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="X1:AH1 AI1:AM1 AJ21 AK21 AL21 AM21 AJ22 AK22 AL22 AM22 AJ23 AK23 AL23 AM23 AJ24 AK24 AL24 AM24 AJ25 AK25 AL25 AM25 X26 Y26 Z26 AA26 AB26 AC26 AD26 AE26 AF26 AG26 AH26 AI26 AJ26 AK26 AL26 AM26 AN26:AO26 X27 Z27 AA27 AB27 AC27 AD27 AE27 AF27 AG27 AH27 AI27 AJ27 AK27 AL27 AM27 X28 Y28 Z28 AA28 AB28 AC28 AD28 AE28 AF28 AG28 AH28 AI28 AJ28 AK28 AL28 AM28 X29 Y29 Z29 AA29 AB29 AC29 AD29 AE29 AF29 AG29 AH29 AI29 AJ29 AK29 AL29 AM29 X30 Y30 Z30 AA30 AB30 AC30 AD30 AE30 AF30 AG30 AH30 AI30 AJ30 AK30 AL30 AM30 X31:AC31 AD31:AM31 AJ2:AM20 X2:AI25 X32:AM1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="R1:U1 V1:W1"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6813,13 +7062,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AJ81"/>
+  <dimension ref="A1:AL81"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -6834,26 +7083,26 @@
     <col min="16" max="16" width="24.9619047619048" style="18" customWidth="1"/>
     <col min="17" max="17" width="7.32380952380952" style="18" customWidth="1"/>
     <col min="18" max="18" width="5.96190476190476" style="18" customWidth="1"/>
-    <col min="19" max="20" width="9.19047619047619" style="18" customWidth="1"/>
-    <col min="21" max="21" width="17.4666666666667" customWidth="1"/>
-    <col min="22" max="22" width="16.2952380952381" customWidth="1"/>
-    <col min="23" max="23" width="20.4952380952381" customWidth="1"/>
-    <col min="24" max="24" width="16.1238095238095" customWidth="1"/>
-    <col min="25" max="25" width="16.8" customWidth="1"/>
-    <col min="26" max="26" width="17.6380952380952" customWidth="1"/>
+    <col min="19" max="22" width="9.19047619047619" style="18" customWidth="1"/>
+    <col min="23" max="23" width="17.4666666666667" customWidth="1"/>
+    <col min="24" max="24" width="16.2952380952381" customWidth="1"/>
+    <col min="25" max="25" width="20.4952380952381" customWidth="1"/>
+    <col min="26" max="26" width="16.1238095238095" customWidth="1"/>
     <col min="27" max="27" width="16.8" customWidth="1"/>
-    <col min="28" max="28" width="13.6" customWidth="1"/>
-    <col min="29" max="29" width="13.7714285714286" customWidth="1"/>
-    <col min="30" max="30" width="13.2666666666667" customWidth="1"/>
-    <col min="31" max="31" width="15.1142857142857" customWidth="1"/>
-    <col min="32" max="32" width="15.9619047619048" customWidth="1"/>
-    <col min="33" max="33" width="12.9333333333333" style="19" customWidth="1"/>
-    <col min="34" max="34" width="15.2857142857143" style="19" customWidth="1"/>
-    <col min="35" max="35" width="12.7619047619048" style="19" customWidth="1"/>
-    <col min="36" max="36" width="13.1047619047619" style="19" customWidth="1"/>
+    <col min="28" max="28" width="17.6380952380952" customWidth="1"/>
+    <col min="29" max="29" width="16.8" customWidth="1"/>
+    <col min="30" max="30" width="13.6" customWidth="1"/>
+    <col min="31" max="31" width="13.7714285714286" customWidth="1"/>
+    <col min="32" max="32" width="13.2666666666667" customWidth="1"/>
+    <col min="33" max="33" width="15.1142857142857" customWidth="1"/>
+    <col min="34" max="34" width="15.9619047619048" customWidth="1"/>
+    <col min="35" max="35" width="12.9333333333333" style="19" customWidth="1"/>
+    <col min="36" max="36" width="15.2857142857143" style="19" customWidth="1"/>
+    <col min="37" max="37" width="12.7619047619048" style="19" customWidth="1"/>
+    <col min="38" max="38" width="13.1047619047619" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="24.75" spans="1:36">
+    <row r="1" s="17" customFormat="1" ht="24.75" spans="1:38">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -6912,7 +7161,7 @@
         <v>F0</v>
       </c>
       <c r="P1" s="33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="36" t="str">
         <f>真值表!R1</f>
@@ -6930,72 +7179,80 @@
         <f>真值表!U1</f>
         <v>S0</v>
       </c>
-      <c r="U1" s="39" t="str">
+      <c r="U1" s="36" t="str">
         <f>真值表!V1</f>
-        <v>MemtoReg</v>
-      </c>
-      <c r="V1" s="39" t="str">
+        <v>R1_Used</v>
+      </c>
+      <c r="V1" s="36" t="str">
         <f>真值表!W1</f>
-        <v>MemWrite</v>
+        <v>R2_Used</v>
       </c>
       <c r="W1" s="39" t="str">
         <f>真值表!X1</f>
-        <v>ALU_SRC</v>
+        <v>MemtoReg</v>
       </c>
       <c r="X1" s="39" t="str">
         <f>真值表!Y1</f>
-        <v>RegWrite</v>
+        <v>MemWrite</v>
       </c>
       <c r="Y1" s="39" t="str">
         <f>真值表!Z1</f>
-        <v>SYSCALL</v>
+        <v>ALU_SRC</v>
       </c>
       <c r="Z1" s="39" t="str">
         <f>真值表!AA1</f>
-        <v>SignedExt</v>
+        <v>RegWrite</v>
       </c>
       <c r="AA1" s="39" t="str">
         <f>真值表!AB1</f>
-        <v>RegDst</v>
+        <v>SYSCALL</v>
       </c>
       <c r="AB1" s="39" t="str">
         <f>真值表!AC1</f>
-        <v>BEQ</v>
+        <v>SignedExt</v>
       </c>
       <c r="AC1" s="39" t="str">
         <f>真值表!AD1</f>
-        <v>BNE</v>
+        <v>RegDst</v>
       </c>
       <c r="AD1" s="39" t="str">
         <f>真值表!AE1</f>
-        <v>JR</v>
+        <v>BEQ</v>
       </c>
       <c r="AE1" s="39" t="str">
         <f>真值表!AF1</f>
-        <v>JMP</v>
+        <v>BNE</v>
       </c>
       <c r="AF1" s="39" t="str">
         <f>真值表!AG1</f>
+        <v>JR</v>
+      </c>
+      <c r="AG1" s="39" t="str">
+        <f>真值表!AH1</f>
+        <v>JMP</v>
+      </c>
+      <c r="AH1" s="39" t="str">
+        <f>真值表!AI1</f>
         <v>JAL</v>
-      </c>
-      <c r="AG1" s="40" t="str">
-        <f>真值表!AH1</f>
-        <v>SRLV</v>
-      </c>
-      <c r="AH1" s="40" t="str">
-        <f>真值表!AI1</f>
-        <v>XORI</v>
       </c>
       <c r="AI1" s="40" t="str">
         <f>真值表!AJ1</f>
-        <v>SH</v>
+        <v>SRLV</v>
       </c>
       <c r="AJ1" s="40" t="str">
         <f>真值表!AK1</f>
+        <v>XORI</v>
+      </c>
+      <c r="AK1" s="40" t="str">
+        <f>真值表!AL1</f>
+        <v>SH</v>
+      </c>
+      <c r="AL1" s="40" t="str">
+        <f>真值表!AM1</f>
         <v>BLEZ</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:36">
+    <row r="2" ht="15.75" spans="1:38">
       <c r="A2" s="23" t="str">
         <f>真值表!B2</f>
         <v>SLL</v>
@@ -7076,13 +7333,13 @@
         <f>真值表!U2</f>
         <v>0</v>
       </c>
-      <c r="U2" s="37">
+      <c r="U2" s="36">
         <f>真值表!V2</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="37">
+        <v>1</v>
+      </c>
+      <c r="V2" s="36">
         <f>真值表!W2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="37">
         <f>真值表!X2</f>
@@ -7090,7 +7347,7 @@
       </c>
       <c r="X2" s="37">
         <f>真值表!Y2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="37">
         <f>真值表!Z2</f>
@@ -7098,11 +7355,11 @@
       </c>
       <c r="Z2" s="37">
         <f>真值表!AA2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="37">
         <f>真值表!AB2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="37">
         <f>真值表!AC2</f>
@@ -7110,10 +7367,10 @@
       </c>
       <c r="AC2" s="37">
         <f>真值表!AD2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="37">
-        <f>AD3</f>
+        <f>真值表!AE2</f>
         <v>0</v>
       </c>
       <c r="AE2" s="37">
@@ -7121,14 +7378,14 @@
         <v>0</v>
       </c>
       <c r="AF2" s="37">
-        <f>真值表!AG2</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="41">
+        <f>AF3</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="37">
         <f>真值表!AH2</f>
         <v>0</v>
       </c>
-      <c r="AH2" s="41">
+      <c r="AH2" s="37">
         <f>真值表!AI2</f>
         <v>0</v>
       </c>
@@ -7140,8 +7397,16 @@
         <f>真值表!AK2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:36">
+      <c r="AK2" s="41">
+        <f>真值表!AL2</f>
+        <v>0</v>
+      </c>
+      <c r="AL2" s="41">
+        <f>真值表!AM2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:38">
       <c r="A3" s="27" t="str">
         <f>真值表!B3</f>
         <v>SRA</v>
@@ -7222,13 +7487,13 @@
         <f>真值表!U3</f>
         <v>1</v>
       </c>
-      <c r="U3" s="38">
+      <c r="U3" s="36">
         <f>真值表!V3</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="38">
+        <v>1</v>
+      </c>
+      <c r="V3" s="36">
         <f>真值表!W3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="38">
         <f>真值表!X3</f>
@@ -7236,7 +7501,7 @@
       </c>
       <c r="X3" s="38">
         <f>真值表!Y3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="38">
         <f>真值表!Z3</f>
@@ -7244,11 +7509,11 @@
       </c>
       <c r="Z3" s="38">
         <f>真值表!AA3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="38">
         <f>真值表!AB3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="38">
         <f>真值表!AC3</f>
@@ -7256,7 +7521,7 @@
       </c>
       <c r="AC3" s="38">
         <f>真值表!AD3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="38">
         <f>真值表!AE3</f>
@@ -7270,11 +7535,11 @@
         <f>真值表!AG3</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="42">
+      <c r="AG3" s="38">
         <f>真值表!AH3</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="42">
+      <c r="AH3" s="38">
         <f>真值表!AI3</f>
         <v>0</v>
       </c>
@@ -7286,8 +7551,16 @@
         <f>真值表!AK3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:36">
+      <c r="AK3" s="42">
+        <f>真值表!AL3</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="42">
+        <f>真值表!AM3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:38">
       <c r="A4" s="23" t="str">
         <f>真值表!B4</f>
         <v>SRL</v>
@@ -7368,13 +7641,13 @@
         <f>真值表!U4</f>
         <v>0</v>
       </c>
-      <c r="U4" s="37">
+      <c r="U4" s="36">
         <f>真值表!V4</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="37">
+        <v>1</v>
+      </c>
+      <c r="V4" s="36">
         <f>真值表!W4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="37">
         <f>真值表!X4</f>
@@ -7382,7 +7655,7 @@
       </c>
       <c r="X4" s="37">
         <f>真值表!Y4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="37">
         <f>真值表!Z4</f>
@@ -7390,11 +7663,11 @@
       </c>
       <c r="Z4" s="37">
         <f>真值表!AA4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="37">
         <f>真值表!AB4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="37">
         <f>真值表!AC4</f>
@@ -7402,7 +7675,7 @@
       </c>
       <c r="AC4" s="37">
         <f>真值表!AD4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="37">
         <f>真值表!AE4</f>
@@ -7416,11 +7689,11 @@
         <f>真值表!AG4</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="41">
+      <c r="AG4" s="37">
         <f>真值表!AH4</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="41">
+      <c r="AH4" s="37">
         <f>真值表!AI4</f>
         <v>0</v>
       </c>
@@ -7432,8 +7705,16 @@
         <f>真值表!AK4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:36">
+      <c r="AK4" s="41">
+        <f>真值表!AL4</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="41">
+        <f>真值表!AM4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:38">
       <c r="A5" s="27" t="str">
         <f>真值表!B5</f>
         <v>ADD</v>
@@ -7514,13 +7795,13 @@
         <f>真值表!U5</f>
         <v>1</v>
       </c>
-      <c r="U5" s="38">
+      <c r="U5" s="36">
         <f>真值表!V5</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="38">
+        <v>1</v>
+      </c>
+      <c r="V5" s="36">
         <f>真值表!W5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="38">
         <f>真值表!X5</f>
@@ -7528,7 +7809,7 @@
       </c>
       <c r="X5" s="38">
         <f>真值表!Y5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="38">
         <f>真值表!Z5</f>
@@ -7536,11 +7817,11 @@
       </c>
       <c r="Z5" s="38">
         <f>真值表!AA5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="38">
         <f>真值表!AB5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="38">
         <f>真值表!AC5</f>
@@ -7548,7 +7829,7 @@
       </c>
       <c r="AC5" s="38">
         <f>真值表!AD5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="38">
         <f>真值表!AE5</f>
@@ -7562,11 +7843,11 @@
         <f>真值表!AG5</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="42">
+      <c r="AG5" s="38">
         <f>真值表!AH5</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="42">
+      <c r="AH5" s="38">
         <f>真值表!AI5</f>
         <v>0</v>
       </c>
@@ -7578,8 +7859,16 @@
         <f>真值表!AK5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:36">
+      <c r="AK5" s="42">
+        <f>真值表!AL5</f>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="42">
+        <f>真值表!AM5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:38">
       <c r="A6" s="23" t="str">
         <f>真值表!B6</f>
         <v>ADDU</v>
@@ -7660,13 +7949,13 @@
         <f>真值表!U6</f>
         <v>1</v>
       </c>
-      <c r="U6" s="37">
+      <c r="U6" s="36">
         <f>真值表!V6</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="37">
+        <v>1</v>
+      </c>
+      <c r="V6" s="36">
         <f>真值表!W6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" s="37">
         <f>真值表!X6</f>
@@ -7674,7 +7963,7 @@
       </c>
       <c r="X6" s="37">
         <f>真值表!Y6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="37">
         <f>真值表!Z6</f>
@@ -7682,11 +7971,11 @@
       </c>
       <c r="Z6" s="37">
         <f>真值表!AA6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="37">
         <f>真值表!AB6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="37">
         <f>真值表!AC6</f>
@@ -7694,7 +7983,7 @@
       </c>
       <c r="AC6" s="37">
         <f>真值表!AD6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="37">
         <f>真值表!AE6</f>
@@ -7708,11 +7997,11 @@
         <f>真值表!AG6</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="41">
+      <c r="AG6" s="37">
         <f>真值表!AH6</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="41">
+      <c r="AH6" s="37">
         <f>真值表!AI6</f>
         <v>0</v>
       </c>
@@ -7724,8 +8013,16 @@
         <f>真值表!AK6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:36">
+      <c r="AK6" s="41">
+        <f>真值表!AL6</f>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="41">
+        <f>真值表!AM6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:38">
       <c r="A7" s="27" t="str">
         <f>真值表!B7</f>
         <v>SUB</v>
@@ -7806,13 +8103,13 @@
         <f>真值表!U7</f>
         <v>0</v>
       </c>
-      <c r="U7" s="38">
+      <c r="U7" s="36">
         <f>真值表!V7</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="38">
+        <v>1</v>
+      </c>
+      <c r="V7" s="36">
         <f>真值表!W7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="38">
         <f>真值表!X7</f>
@@ -7820,7 +8117,7 @@
       </c>
       <c r="X7" s="38">
         <f>真值表!Y7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="38">
         <f>真值表!Z7</f>
@@ -7828,11 +8125,11 @@
       </c>
       <c r="Z7" s="38">
         <f>真值表!AA7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="38">
         <f>真值表!AB7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="38">
         <f>真值表!AC7</f>
@@ -7840,7 +8137,7 @@
       </c>
       <c r="AC7" s="38">
         <f>真值表!AD7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="38">
         <f>真值表!AE7</f>
@@ -7854,11 +8151,11 @@
         <f>真值表!AG7</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="42">
+      <c r="AG7" s="38">
         <f>真值表!AH7</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="42">
+      <c r="AH7" s="38">
         <f>真值表!AI7</f>
         <v>0</v>
       </c>
@@ -7870,8 +8167,16 @@
         <f>真值表!AK7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" spans="1:36">
+      <c r="AK7" s="42">
+        <f>真值表!AL7</f>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="42">
+        <f>真值表!AM7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:38">
       <c r="A8" s="23" t="str">
         <f>真值表!B8</f>
         <v>AND</v>
@@ -7952,13 +8257,13 @@
         <f>真值表!U8</f>
         <v>1</v>
       </c>
-      <c r="U8" s="37">
+      <c r="U8" s="36">
         <f>真值表!V8</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="37">
+        <v>1</v>
+      </c>
+      <c r="V8" s="36">
         <f>真值表!W8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="37">
         <f>真值表!X8</f>
@@ -7966,7 +8271,7 @@
       </c>
       <c r="X8" s="37">
         <f>真值表!Y8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="37">
         <f>真值表!Z8</f>
@@ -7974,11 +8279,11 @@
       </c>
       <c r="Z8" s="37">
         <f>真值表!AA8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="37">
         <f>真值表!AB8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="37">
         <f>真值表!AC8</f>
@@ -7986,7 +8291,7 @@
       </c>
       <c r="AC8" s="37">
         <f>真值表!AD8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="37">
         <f>真值表!AE8</f>
@@ -8000,11 +8305,11 @@
         <f>真值表!AG8</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="41">
+      <c r="AG8" s="37">
         <f>真值表!AH8</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="41">
+      <c r="AH8" s="37">
         <f>真值表!AI8</f>
         <v>0</v>
       </c>
@@ -8016,8 +8321,16 @@
         <f>真值表!AK8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:36">
+      <c r="AK8" s="41">
+        <f>真值表!AL8</f>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="41">
+        <f>真值表!AM8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:38">
       <c r="A9" s="27" t="str">
         <f>真值表!B9</f>
         <v>OR</v>
@@ -8098,13 +8411,13 @@
         <f>真值表!U9</f>
         <v>0</v>
       </c>
-      <c r="U9" s="38">
+      <c r="U9" s="36">
         <f>真值表!V9</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="38">
+        <v>1</v>
+      </c>
+      <c r="V9" s="36">
         <f>真值表!W9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="38">
         <f>真值表!X9</f>
@@ -8112,7 +8425,7 @@
       </c>
       <c r="X9" s="38">
         <f>真值表!Y9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="38">
         <f>真值表!Z9</f>
@@ -8120,11 +8433,11 @@
       </c>
       <c r="Z9" s="38">
         <f>真值表!AA9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="38">
         <f>真值表!AB9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="38">
         <f>真值表!AC9</f>
@@ -8132,7 +8445,7 @@
       </c>
       <c r="AC9" s="38">
         <f>真值表!AD9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="38">
         <f>真值表!AE9</f>
@@ -8146,11 +8459,11 @@
         <f>真值表!AG9</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="42">
+      <c r="AG9" s="38">
         <f>真值表!AH9</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="42">
+      <c r="AH9" s="38">
         <f>真值表!AI9</f>
         <v>0</v>
       </c>
@@ -8162,8 +8475,16 @@
         <f>真值表!AK9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:36">
+      <c r="AK9" s="42">
+        <f>真值表!AL9</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="42">
+        <f>真值表!AM9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:38">
       <c r="A10" s="23" t="str">
         <f>真值表!B10</f>
         <v>NOR</v>
@@ -8244,13 +8565,13 @@
         <f>真值表!U10</f>
         <v>0</v>
       </c>
-      <c r="U10" s="37">
+      <c r="U10" s="36">
         <f>真值表!V10</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="37">
+        <v>1</v>
+      </c>
+      <c r="V10" s="36">
         <f>真值表!W10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="37">
         <f>真值表!X10</f>
@@ -8258,7 +8579,7 @@
       </c>
       <c r="X10" s="37">
         <f>真值表!Y10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="37">
         <f>真值表!Z10</f>
@@ -8266,11 +8587,11 @@
       </c>
       <c r="Z10" s="37">
         <f>真值表!AA10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="37">
         <f>真值表!AB10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="37">
         <f>真值表!AC10</f>
@@ -8278,7 +8599,7 @@
       </c>
       <c r="AC10" s="37">
         <f>真值表!AD10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="37">
         <f>真值表!AE10</f>
@@ -8292,11 +8613,11 @@
         <f>真值表!AG10</f>
         <v>0</v>
       </c>
-      <c r="AG10" s="41">
+      <c r="AG10" s="37">
         <f>真值表!AH10</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="41">
+      <c r="AH10" s="37">
         <f>真值表!AI10</f>
         <v>0</v>
       </c>
@@ -8308,8 +8629,16 @@
         <f>真值表!AK10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:36">
+      <c r="AK10" s="41">
+        <f>真值表!AL10</f>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="41">
+        <f>真值表!AM10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:38">
       <c r="A11" s="27" t="str">
         <f>真值表!B11</f>
         <v>SLT</v>
@@ -8390,13 +8719,13 @@
         <f>真值表!U11</f>
         <v>1</v>
       </c>
-      <c r="U11" s="38">
+      <c r="U11" s="36">
         <f>真值表!V11</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="38">
+        <v>1</v>
+      </c>
+      <c r="V11" s="36">
         <f>真值表!W11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="38">
         <f>真值表!X11</f>
@@ -8404,7 +8733,7 @@
       </c>
       <c r="X11" s="38">
         <f>真值表!Y11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="38">
         <f>真值表!Z11</f>
@@ -8412,11 +8741,11 @@
       </c>
       <c r="Z11" s="38">
         <f>真值表!AA11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="38">
         <f>真值表!AB11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="38">
         <f>真值表!AC11</f>
@@ -8424,7 +8753,7 @@
       </c>
       <c r="AC11" s="38">
         <f>真值表!AD11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="38">
         <f>真值表!AE11</f>
@@ -8438,11 +8767,11 @@
         <f>真值表!AG11</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="42">
+      <c r="AG11" s="38">
         <f>真值表!AH11</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="42">
+      <c r="AH11" s="38">
         <f>真值表!AI11</f>
         <v>0</v>
       </c>
@@ -8454,8 +8783,16 @@
         <f>真值表!AK11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:36">
+      <c r="AK11" s="42">
+        <f>真值表!AL11</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="42">
+        <f>真值表!AM11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:38">
       <c r="A12" s="23" t="str">
         <f>真值表!B12</f>
         <v>SLTU</v>
@@ -8536,13 +8873,13 @@
         <f>真值表!U12</f>
         <v>0</v>
       </c>
-      <c r="U12" s="37">
+      <c r="U12" s="36">
         <f>真值表!V12</f>
-        <v>0</v>
-      </c>
-      <c r="V12" s="37">
+        <v>1</v>
+      </c>
+      <c r="V12" s="36">
         <f>真值表!W12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="37">
         <f>真值表!X12</f>
@@ -8550,7 +8887,7 @@
       </c>
       <c r="X12" s="37">
         <f>真值表!Y12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="37">
         <f>真值表!Z12</f>
@@ -8558,11 +8895,11 @@
       </c>
       <c r="Z12" s="37">
         <f>真值表!AA12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="37">
         <f>真值表!AB12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="37">
         <f>真值表!AC12</f>
@@ -8570,7 +8907,7 @@
       </c>
       <c r="AC12" s="37">
         <f>真值表!AD12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="37">
         <f>真值表!AE12</f>
@@ -8584,11 +8921,11 @@
         <f>真值表!AG12</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="41">
+      <c r="AG12" s="37">
         <f>真值表!AH12</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="41">
+      <c r="AH12" s="37">
         <f>真值表!AI12</f>
         <v>0</v>
       </c>
@@ -8600,8 +8937,16 @@
         <f>真值表!AK12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" spans="1:36">
+      <c r="AK12" s="41">
+        <f>真值表!AL12</f>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="41">
+        <f>真值表!AM12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" hidden="1" spans="1:38">
       <c r="A13" s="27" t="str">
         <f>真值表!B13</f>
         <v>JR</v>
@@ -8682,11 +9027,11 @@
         <f>真值表!U13</f>
         <v>X</v>
       </c>
-      <c r="U13" s="38">
+      <c r="U13" s="36">
         <f>真值表!V13</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="38">
+        <v>1</v>
+      </c>
+      <c r="V13" s="36">
         <f>真值表!W13</f>
         <v>0</v>
       </c>
@@ -8720,21 +9065,21 @@
       </c>
       <c r="AD13" s="38">
         <f>真值表!AE13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="38">
         <f>真值表!AF13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="38">
         <f>真值表!AG13</f>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="42">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="38">
         <f>真值表!AH13</f>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="42">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="38">
         <f>真值表!AI13</f>
         <v>0</v>
       </c>
@@ -8746,8 +9091,16 @@
         <f>真值表!AK13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" ht="15.75" spans="1:36">
+      <c r="AK13" s="42">
+        <f>真值表!AL13</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="42">
+        <f>真值表!AM13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:38">
       <c r="A14" s="23" t="str">
         <f>真值表!B14</f>
         <v>SYSCALL</v>
@@ -8828,13 +9181,13 @@
         <f>真值表!U14</f>
         <v>X</v>
       </c>
-      <c r="U14" s="37">
+      <c r="U14" s="36">
         <f>真值表!V14</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="37">
+        <v>1</v>
+      </c>
+      <c r="V14" s="36">
         <f>真值表!W14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="37">
         <f>真值表!X14</f>
@@ -8846,7 +9199,7 @@
       </c>
       <c r="Y14" s="37">
         <f>真值表!Z14</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="37">
         <f>真值表!AA14</f>
@@ -8854,7 +9207,7 @@
       </c>
       <c r="AA14" s="37">
         <f>真值表!AB14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="37">
         <f>真值表!AC14</f>
@@ -8876,11 +9229,11 @@
         <f>真值表!AG14</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="41">
+      <c r="AG14" s="37">
         <f>真值表!AH14</f>
         <v>0</v>
       </c>
-      <c r="AH14" s="41">
+      <c r="AH14" s="37">
         <f>真值表!AI14</f>
         <v>0</v>
       </c>
@@ -8892,8 +9245,16 @@
         <f>真值表!AK14</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" ht="15.75" spans="1:36">
+      <c r="AK14" s="41">
+        <f>真值表!AL14</f>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="41">
+        <f>真值表!AM14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" hidden="1" spans="1:38">
       <c r="A15" s="27" t="str">
         <f>真值表!B15</f>
         <v>J</v>
@@ -8974,11 +9335,11 @@
         <f>真值表!U15</f>
         <v>X</v>
       </c>
-      <c r="U15" s="38">
+      <c r="U15" s="36">
         <f>真值表!V15</f>
         <v>0</v>
       </c>
-      <c r="V15" s="38">
+      <c r="V15" s="36">
         <f>真值表!W15</f>
         <v>0</v>
       </c>
@@ -9016,17 +9377,17 @@
       </c>
       <c r="AE15" s="38">
         <f>真值表!AF15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="38">
         <f>真值表!AG15</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="42">
+      <c r="AG15" s="38">
         <f>真值表!AH15</f>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="42">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="38">
         <f>真值表!AI15</f>
         <v>0</v>
       </c>
@@ -9038,8 +9399,16 @@
         <f>真值表!AK15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" ht="15.75" spans="1:36">
+      <c r="AK15" s="42">
+        <f>真值表!AL15</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="42">
+        <f>真值表!AM15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" hidden="1" spans="1:38">
       <c r="A16" s="23" t="str">
         <f>真值表!B16</f>
         <v>JAL</v>
@@ -9120,11 +9489,11 @@
         <f>真值表!U16</f>
         <v>X</v>
       </c>
-      <c r="U16" s="37">
+      <c r="U16" s="36">
         <f>真值表!V16</f>
         <v>0</v>
       </c>
-      <c r="V16" s="37">
+      <c r="V16" s="36">
         <f>真值表!W16</f>
         <v>0</v>
       </c>
@@ -9134,7 +9503,7 @@
       </c>
       <c r="X16" s="37">
         <f>真值表!Y16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="37">
         <f>真值表!Z16</f>
@@ -9142,7 +9511,7 @@
       </c>
       <c r="Z16" s="37">
         <f>真值表!AA16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="37">
         <f>真值表!AB16</f>
@@ -9162,19 +9531,19 @@
       </c>
       <c r="AE16" s="37">
         <f>真值表!AF16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="37">
         <f>真值表!AG16</f>
-        <v>1</v>
-      </c>
-      <c r="AG16" s="41">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="37">
         <f>真值表!AH16</f>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="41">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="37">
         <f>真值表!AI16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="41">
         <f>真值表!AJ16</f>
@@ -9184,8 +9553,16 @@
         <f>真值表!AK16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" ht="15.75" spans="1:36">
+      <c r="AK16" s="41">
+        <f>真值表!AL16</f>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="41">
+        <f>真值表!AM16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" spans="1:38">
       <c r="A17" s="27" t="str">
         <f>真值表!B17</f>
         <v>BEQ</v>
@@ -9266,13 +9643,13 @@
         <f>真值表!U17</f>
         <v>X</v>
       </c>
-      <c r="U17" s="38">
+      <c r="U17" s="36">
         <f>真值表!V17</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="38">
+        <v>1</v>
+      </c>
+      <c r="V17" s="36">
         <f>真值表!W17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="38">
         <f>真值表!X17</f>
@@ -9296,7 +9673,7 @@
       </c>
       <c r="AB17" s="38">
         <f>真值表!AC17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="38">
         <f>真值表!AD17</f>
@@ -9304,7 +9681,7 @@
       </c>
       <c r="AD17" s="38">
         <f>真值表!AE17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="38">
         <f>真值表!AF17</f>
@@ -9314,11 +9691,11 @@
         <f>真值表!AG17</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="42">
+      <c r="AG17" s="38">
         <f>真值表!AH17</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="42">
+      <c r="AH17" s="38">
         <f>真值表!AI17</f>
         <v>0</v>
       </c>
@@ -9330,8 +9707,16 @@
         <f>真值表!AK17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" ht="15.75" spans="1:36">
+      <c r="AK17" s="42">
+        <f>真值表!AL17</f>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="42">
+        <f>真值表!AM17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:38">
       <c r="A18" s="23" t="str">
         <f>真值表!B18</f>
         <v>BNE</v>
@@ -9412,13 +9797,13 @@
         <f>真值表!U18</f>
         <v>X</v>
       </c>
-      <c r="U18" s="37">
+      <c r="U18" s="36">
         <f>真值表!V18</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="37">
+        <v>1</v>
+      </c>
+      <c r="V18" s="36">
         <f>真值表!W18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="37">
         <f>真值表!X18</f>
@@ -9446,7 +9831,7 @@
       </c>
       <c r="AC18" s="37">
         <f>真值表!AD18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="37">
         <f>真值表!AE18</f>
@@ -9454,17 +9839,17 @@
       </c>
       <c r="AE18" s="37">
         <f>真值表!AF18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="37">
         <f>真值表!AG18</f>
         <v>0</v>
       </c>
-      <c r="AG18" s="41">
+      <c r="AG18" s="37">
         <f>真值表!AH18</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="41">
+      <c r="AH18" s="37">
         <f>真值表!AI18</f>
         <v>0</v>
       </c>
@@ -9476,8 +9861,16 @@
         <f>真值表!AK18</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" ht="15.75" spans="1:36">
+      <c r="AK18" s="41">
+        <f>真值表!AL18</f>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="41">
+        <f>真值表!AM18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" hidden="1" spans="1:38">
       <c r="A19" s="27" t="str">
         <f>真值表!B19</f>
         <v>ADDI</v>
@@ -9539,7 +9932,7 @@
         <v/>
       </c>
       <c r="P19" s="35" t="str">
-        <f>CONCATENATE(D19,E19,F19,G19,H19,I19,J19,K19,L19,M19,N19,O19)&amp;"+"</f>
+        <f t="shared" si="0"/>
         <v>~OP5 ~OP4  OP3 ~OP2 ~OP1 ~OP0 +</v>
       </c>
       <c r="Q19" s="38">
@@ -9558,25 +9951,25 @@
         <f>真值表!U19</f>
         <v>1</v>
       </c>
-      <c r="U19" s="38">
+      <c r="U19" s="36">
         <f>真值表!V19</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="38">
+        <v>1</v>
+      </c>
+      <c r="V19" s="36">
         <f>真值表!W19</f>
         <v>0</v>
       </c>
       <c r="W19" s="38">
         <f>真值表!X19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="38">
         <f>真值表!Y19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="38">
         <f>真值表!Z19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="38">
         <f>真值表!AA19</f>
@@ -9588,7 +9981,7 @@
       </c>
       <c r="AB19" s="38">
         <f>真值表!AC19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="38">
         <f>真值表!AD19</f>
@@ -9606,11 +9999,11 @@
         <f>真值表!AG19</f>
         <v>0</v>
       </c>
-      <c r="AG19" s="42">
+      <c r="AG19" s="38">
         <f>真值表!AH19</f>
         <v>0</v>
       </c>
-      <c r="AH19" s="42">
+      <c r="AH19" s="38">
         <f>真值表!AI19</f>
         <v>0</v>
       </c>
@@ -9622,8 +10015,16 @@
         <f>真值表!AK19</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" ht="15.75" spans="1:36">
+      <c r="AK19" s="42">
+        <f>真值表!AL19</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="42">
+        <f>真值表!AM19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" hidden="1" spans="1:38">
       <c r="A20" s="23" t="str">
         <f>真值表!B20</f>
         <v>ANDI</v>
@@ -9704,29 +10105,29 @@
         <f>真值表!U20</f>
         <v>1</v>
       </c>
-      <c r="U20" s="37">
+      <c r="U20" s="36">
         <f>真值表!V20</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="37">
+        <v>1</v>
+      </c>
+      <c r="V20" s="36">
         <f>真值表!W20</f>
         <v>0</v>
       </c>
       <c r="W20" s="37">
         <f>真值表!X20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="37">
         <f>真值表!Y20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="37">
         <f>真值表!Z20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="37">
         <f>真值表!AA20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="37">
         <f>真值表!AB20</f>
@@ -9752,11 +10153,11 @@
         <f>真值表!AG20</f>
         <v>0</v>
       </c>
-      <c r="AG20" s="41">
+      <c r="AG20" s="37">
         <f>真值表!AH20</f>
         <v>0</v>
       </c>
-      <c r="AH20" s="41">
+      <c r="AH20" s="37">
         <f>真值表!AI20</f>
         <v>0</v>
       </c>
@@ -9768,8 +10169,16 @@
         <f>真值表!AK20</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" ht="15.75" spans="1:36">
+      <c r="AK20" s="41">
+        <f>真值表!AL20</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="41">
+        <f>真值表!AM20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" hidden="1" spans="1:38">
       <c r="A21" s="27" t="str">
         <f>真值表!B21</f>
         <v>ADDIU</v>
@@ -9850,25 +10259,25 @@
         <f>真值表!U21</f>
         <v>1</v>
       </c>
-      <c r="U21" s="38">
+      <c r="U21" s="36">
         <f>真值表!V21</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="38">
+        <v>1</v>
+      </c>
+      <c r="V21" s="36">
         <f>真值表!W21</f>
         <v>0</v>
       </c>
       <c r="W21" s="38">
         <f>真值表!X21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="38">
         <f>真值表!Y21</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="38">
         <f>真值表!Z21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="38">
         <f>真值表!AA21</f>
@@ -9880,7 +10289,7 @@
       </c>
       <c r="AB21" s="38">
         <f>真值表!AC21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" s="38">
         <f>真值表!AD21</f>
@@ -9898,11 +10307,11 @@
         <f>真值表!AG21</f>
         <v>0</v>
       </c>
-      <c r="AG21" s="42">
+      <c r="AG21" s="38">
         <f>真值表!AH21</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="42">
+      <c r="AH21" s="38">
         <f>真值表!AI21</f>
         <v>0</v>
       </c>
@@ -9914,8 +10323,16 @@
         <f>真值表!AK21</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" ht="15.75" spans="1:36">
+      <c r="AK21" s="42">
+        <f>真值表!AL21</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="42">
+        <f>真值表!AM21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" hidden="1" spans="1:38">
       <c r="A22" s="23" t="str">
         <f>真值表!B22</f>
         <v>SLTI</v>
@@ -9996,25 +10413,25 @@
         <f>真值表!U22</f>
         <v>1</v>
       </c>
-      <c r="U22" s="37">
+      <c r="U22" s="36">
         <f>真值表!V22</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="37">
+        <v>1</v>
+      </c>
+      <c r="V22" s="36">
         <f>真值表!W22</f>
         <v>0</v>
       </c>
       <c r="W22" s="37">
         <f>真值表!X22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="37">
         <f>真值表!Y22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="37">
         <f>真值表!Z22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="37">
         <f>真值表!AA22</f>
@@ -10026,7 +10443,7 @@
       </c>
       <c r="AB22" s="37">
         <f>真值表!AC22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="37">
         <f>真值表!AD22</f>
@@ -10044,11 +10461,11 @@
         <f>真值表!AG22</f>
         <v>0</v>
       </c>
-      <c r="AG22" s="41">
+      <c r="AG22" s="37">
         <f>真值表!AH22</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="41">
+      <c r="AH22" s="37">
         <f>真值表!AI22</f>
         <v>0</v>
       </c>
@@ -10060,8 +10477,16 @@
         <f>真值表!AK22</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" ht="15.75" spans="1:36">
+      <c r="AK22" s="41">
+        <f>真值表!AL22</f>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="41">
+        <f>真值表!AM22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" hidden="1" spans="1:38">
       <c r="A23" s="27" t="str">
         <f>真值表!B23</f>
         <v>ORI</v>
@@ -10142,29 +10567,29 @@
         <f>真值表!U23</f>
         <v>0</v>
       </c>
-      <c r="U23" s="38">
+      <c r="U23" s="36">
         <f>真值表!V23</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="38">
+        <v>1</v>
+      </c>
+      <c r="V23" s="36">
         <f>真值表!W23</f>
         <v>0</v>
       </c>
       <c r="W23" s="38">
         <f>真值表!X23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="38">
         <f>真值表!Y23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="38">
         <f>真值表!Z23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="38">
         <f>真值表!AA23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="38">
         <f>真值表!AB23</f>
@@ -10190,11 +10615,11 @@
         <f>真值表!AG23</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="42">
+      <c r="AG23" s="38">
         <f>真值表!AH23</f>
         <v>0</v>
       </c>
-      <c r="AH23" s="42">
+      <c r="AH23" s="38">
         <f>真值表!AI23</f>
         <v>0</v>
       </c>
@@ -10206,8 +10631,16 @@
         <f>真值表!AK23</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" spans="1:36">
+      <c r="AK23" s="42">
+        <f>真值表!AL23</f>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="42">
+        <f>真值表!AM23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" hidden="1" spans="1:38">
       <c r="A24" s="23" t="str">
         <f>真值表!B24</f>
         <v>LW</v>
@@ -10288,11 +10721,11 @@
         <f>真值表!U24</f>
         <v>1</v>
       </c>
-      <c r="U24" s="37">
+      <c r="U24" s="36">
         <f>真值表!V24</f>
         <v>1</v>
       </c>
-      <c r="V24" s="37">
+      <c r="V24" s="36">
         <f>真值表!W24</f>
         <v>0</v>
       </c>
@@ -10302,11 +10735,11 @@
       </c>
       <c r="X24" s="37">
         <f>真值表!Y24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="37">
         <f>真值表!Z24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="37">
         <f>真值表!AA24</f>
@@ -10318,7 +10751,7 @@
       </c>
       <c r="AB24" s="37">
         <f>真值表!AC24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="37">
         <f>真值表!AD24</f>
@@ -10336,11 +10769,11 @@
         <f>真值表!AG24</f>
         <v>0</v>
       </c>
-      <c r="AG24" s="41">
+      <c r="AG24" s="37">
         <f>真值表!AH24</f>
         <v>0</v>
       </c>
-      <c r="AH24" s="41">
+      <c r="AH24" s="37">
         <f>真值表!AI24</f>
         <v>0</v>
       </c>
@@ -10352,8 +10785,16 @@
         <f>真值表!AK24</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" spans="1:36">
+      <c r="AK24" s="41">
+        <f>真值表!AL24</f>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="41">
+        <f>真值表!AM24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" spans="1:38">
       <c r="A25" s="27" t="str">
         <f>真值表!B25</f>
         <v>SW</v>
@@ -10434,29 +10875,29 @@
         <f>真值表!U25</f>
         <v>1</v>
       </c>
-      <c r="U25" s="38">
+      <c r="U25" s="36">
         <f>真值表!V25</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="38">
+        <v>1</v>
+      </c>
+      <c r="V25" s="36">
         <f>真值表!W25</f>
         <v>1</v>
       </c>
       <c r="W25" s="38">
         <f>真值表!X25</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="38">
         <f>真值表!Y25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="38">
         <f>真值表!Z25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="38">
         <f>真值表!AA25</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="38">
         <f>真值表!AB25</f>
@@ -10464,7 +10905,7 @@
       </c>
       <c r="AB25" s="38">
         <f>真值表!AC25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="38">
         <f>真值表!AD25</f>
@@ -10482,11 +10923,11 @@
         <f>真值表!AG25</f>
         <v>0</v>
       </c>
-      <c r="AG25" s="42">
+      <c r="AG25" s="38">
         <f>真值表!AH25</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="42">
+      <c r="AH25" s="38">
         <f>真值表!AI25</f>
         <v>0</v>
       </c>
@@ -10498,8 +10939,16 @@
         <f>真值表!AK25</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" ht="15.75" spans="1:36">
+      <c r="AK25" s="42">
+        <f>真值表!AL25</f>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="42">
+        <f>真值表!AM25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="1:38">
       <c r="A26" s="23" t="str">
         <f>真值表!B26</f>
         <v>SRLV</v>
@@ -10580,13 +11029,13 @@
         <f>真值表!U26</f>
         <v>0</v>
       </c>
-      <c r="U26" s="37">
+      <c r="U26" s="36">
         <f>真值表!V26</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="37">
+        <v>1</v>
+      </c>
+      <c r="V26" s="36">
         <f>真值表!W26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="37">
         <f>真值表!X26</f>
@@ -10594,7 +11043,7 @@
       </c>
       <c r="X26" s="37">
         <f>真值表!Y26</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="37">
         <f>真值表!Z26</f>
@@ -10602,11 +11051,11 @@
       </c>
       <c r="Z26" s="37">
         <f>真值表!AA26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="37">
         <f>真值表!AB26</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="37">
         <f>真值表!AC26</f>
@@ -10614,7 +11063,7 @@
       </c>
       <c r="AC26" s="37">
         <f>真值表!AD26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="37">
         <f>真值表!AE26</f>
@@ -10628,24 +11077,32 @@
         <f>真值表!AG26</f>
         <v>0</v>
       </c>
-      <c r="AG26" s="41">
+      <c r="AG26" s="37">
         <f>真值表!AH26</f>
-        <v>1</v>
-      </c>
-      <c r="AH26" s="41">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="37">
         <f>真值表!AI26</f>
         <v>0</v>
       </c>
       <c r="AI26" s="41">
         <f>真值表!AJ26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26" s="41">
         <f>真值表!AK26</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" ht="15.75" spans="1:36">
+      <c r="AK26" s="41">
+        <f>真值表!AL26</f>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="41">
+        <f>真值表!AM26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:38">
       <c r="A27" s="27" t="str">
         <f>真值表!B27</f>
         <v>XORI</v>
@@ -10726,29 +11183,29 @@
         <f>真值表!U27</f>
         <v>1</v>
       </c>
-      <c r="U27" s="38">
+      <c r="U27" s="36">
         <f>真值表!V27</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="38">
+        <v>1</v>
+      </c>
+      <c r="V27" s="36">
+        <f>真值表!W27</f>
+        <v>1</v>
+      </c>
+      <c r="W27" s="38">
         <f>真值表!X27</f>
-        <v>1</v>
-      </c>
-      <c r="W27" s="38">
-        <f>真值表!Y27</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="38">
-        <f>真值表!Y27</f>
+        <f>真值表!Z27</f>
         <v>1</v>
       </c>
       <c r="Y27" s="38">
-        <f>真值表!Z27</f>
-        <v>0</v>
+        <f>真值表!AA27</f>
+        <v>1</v>
       </c>
       <c r="Z27" s="38">
         <f>真值表!AA27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27" s="38">
         <f>真值表!AB27</f>
@@ -10774,13 +11231,13 @@
         <f>真值表!AG27</f>
         <v>0</v>
       </c>
-      <c r="AG27" s="42">
+      <c r="AG27" s="38">
         <f>真值表!AH27</f>
         <v>0</v>
       </c>
-      <c r="AH27" s="42">
+      <c r="AH27" s="38">
         <f>真值表!AI27</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI27" s="42">
         <f>真值表!AJ27</f>
@@ -10788,10 +11245,18 @@
       </c>
       <c r="AJ27" s="42">
         <f>真值表!AK27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" spans="1:36">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="42">
+        <f>真值表!AL27</f>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="42">
+        <f>真值表!AM27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="1:38">
       <c r="A28" s="23" t="str">
         <f>真值表!B28</f>
         <v>SH</v>
@@ -10872,29 +11337,29 @@
         <f>真值表!U28</f>
         <v>1</v>
       </c>
-      <c r="U28" s="37">
+      <c r="U28" s="36">
         <f>真值表!V28</f>
         <v>0</v>
       </c>
-      <c r="V28" s="37">
+      <c r="V28" s="36">
         <f>真值表!W28</f>
         <v>1</v>
       </c>
       <c r="W28" s="37">
         <f>真值表!X28</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="37">
         <f>真值表!Y28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="37">
         <f>真值表!Z28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="37">
         <f>真值表!AA28</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="37">
         <f>真值表!AB28</f>
@@ -10902,7 +11367,7 @@
       </c>
       <c r="AB28" s="37">
         <f>真值表!AC28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="37">
         <f>真值表!AD28</f>
@@ -10920,24 +11385,32 @@
         <f>真值表!AG28</f>
         <v>0</v>
       </c>
-      <c r="AG28" s="41">
+      <c r="AG28" s="37">
         <f>真值表!AH28</f>
         <v>0</v>
       </c>
-      <c r="AH28" s="41">
+      <c r="AH28" s="37">
         <f>真值表!AI28</f>
         <v>0</v>
       </c>
       <c r="AI28" s="41">
         <f>真值表!AJ28</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="41">
         <f>真值表!AK28</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" ht="15.75" spans="1:36">
+      <c r="AK28" s="41">
+        <f>真值表!AL28</f>
+        <v>1</v>
+      </c>
+      <c r="AL28" s="41">
+        <f>真值表!AM28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" hidden="1" spans="1:38">
       <c r="A29" s="27" t="str">
         <f>真值表!B29</f>
         <v>BLEZ</v>
@@ -11018,15 +11491,15 @@
         <f>真值表!U29</f>
         <v>1</v>
       </c>
-      <c r="U29" s="38">
-        <v>0</v>
-      </c>
-      <c r="V29" s="38">
+      <c r="U29" s="36">
+        <f>真值表!V29</f>
+        <v>1</v>
+      </c>
+      <c r="V29" s="36">
         <f>真值表!W29</f>
         <v>0</v>
       </c>
       <c r="W29" s="38">
-        <f>真值表!X29</f>
         <v>0</v>
       </c>
       <c r="X29" s="38">
@@ -11065,11 +11538,11 @@
         <f>真值表!AG29</f>
         <v>0</v>
       </c>
-      <c r="AG29" s="42">
+      <c r="AG29" s="38">
         <f>真值表!AH29</f>
         <v>0</v>
       </c>
-      <c r="AH29" s="42">
+      <c r="AH29" s="38">
         <f>真值表!AI29</f>
         <v>0</v>
       </c>
@@ -11079,10 +11552,18 @@
       </c>
       <c r="AJ29" s="42">
         <f>真值表!AK29</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" spans="1:36">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="42">
+        <f>真值表!AL29</f>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="42">
+        <f>真值表!AM29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" hidden="1" spans="1:38">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
@@ -11115,12 +11596,14 @@
       <c r="AD30" s="37"/>
       <c r="AE30" s="37"/>
       <c r="AF30" s="37"/>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="41"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
       <c r="AI30" s="41"/>
       <c r="AJ30" s="41"/>
-    </row>
-    <row r="31" ht="15.75" spans="1:36">
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="41"/>
+    </row>
+    <row r="31" ht="15.75" hidden="1" spans="1:38">
       <c r="A31" s="27"/>
       <c r="B31" s="28"/>
       <c r="C31" s="29"/>
@@ -11153,12 +11636,14 @@
       <c r="AD31" s="38"/>
       <c r="AE31" s="38"/>
       <c r="AF31" s="38"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="42"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
       <c r="AI31" s="42"/>
       <c r="AJ31" s="42"/>
-    </row>
-    <row r="32" ht="15.75" spans="1:36">
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
+    </row>
+    <row r="32" ht="15.75" hidden="1" spans="1:38">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
@@ -11191,12 +11676,14 @@
       <c r="AD32" s="37"/>
       <c r="AE32" s="37"/>
       <c r="AF32" s="37"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
       <c r="AI32" s="41"/>
       <c r="AJ32" s="41"/>
-    </row>
-    <row r="33" ht="15.75" spans="1:36">
+      <c r="AK32" s="41"/>
+      <c r="AL32" s="41"/>
+    </row>
+    <row r="33" ht="15.75" hidden="1" spans="1:38">
       <c r="A33" s="27"/>
       <c r="B33" s="28"/>
       <c r="C33" s="29"/>
@@ -11229,12 +11716,14 @@
       <c r="AD33" s="38"/>
       <c r="AE33" s="38"/>
       <c r="AF33" s="38"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="42"/>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="38"/>
       <c r="AI33" s="42"/>
       <c r="AJ33" s="42"/>
-    </row>
-    <row r="34" ht="15.75" spans="1:36">
+      <c r="AK33" s="42"/>
+      <c r="AL33" s="42"/>
+    </row>
+    <row r="34" ht="15.75" hidden="1" spans="1:38">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -11267,12 +11756,14 @@
       <c r="AD34" s="37"/>
       <c r="AE34" s="37"/>
       <c r="AF34" s="37"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
       <c r="AI34" s="41"/>
       <c r="AJ34" s="41"/>
-    </row>
-    <row r="35" ht="15.75" spans="1:36">
+      <c r="AK34" s="41"/>
+      <c r="AL34" s="41"/>
+    </row>
+    <row r="35" ht="15.75" hidden="1" spans="1:38">
       <c r="A35" s="27"/>
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
@@ -11305,12 +11796,14 @@
       <c r="AD35" s="38"/>
       <c r="AE35" s="38"/>
       <c r="AF35" s="38"/>
-      <c r="AG35" s="42"/>
-      <c r="AH35" s="42"/>
+      <c r="AG35" s="38"/>
+      <c r="AH35" s="38"/>
       <c r="AI35" s="42"/>
       <c r="AJ35" s="42"/>
-    </row>
-    <row r="36" ht="15.75" spans="1:36">
+      <c r="AK35" s="42"/>
+      <c r="AL35" s="42"/>
+    </row>
+    <row r="36" ht="15.75" hidden="1" spans="1:38">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -11343,12 +11836,14 @@
       <c r="AD36" s="37"/>
       <c r="AE36" s="37"/>
       <c r="AF36" s="37"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
       <c r="AI36" s="41"/>
       <c r="AJ36" s="41"/>
-    </row>
-    <row r="37" ht="15.75" spans="1:36">
+      <c r="AK36" s="41"/>
+      <c r="AL36" s="41"/>
+    </row>
+    <row r="37" ht="15.75" spans="1:38">
       <c r="A37" s="27"/>
       <c r="B37" s="28"/>
       <c r="C37" s="29"/>
@@ -11381,12 +11876,14 @@
       <c r="AD37" s="38"/>
       <c r="AE37" s="38"/>
       <c r="AF37" s="38"/>
-      <c r="AG37" s="42"/>
-      <c r="AH37" s="42"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
       <c r="AI37" s="42"/>
       <c r="AJ37" s="42"/>
-    </row>
-    <row r="38" ht="15.75" spans="1:36">
+      <c r="AK37" s="42"/>
+      <c r="AL37" s="42"/>
+    </row>
+    <row r="38" ht="15.75" spans="1:38">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -11419,12 +11916,14 @@
       <c r="AD38" s="37"/>
       <c r="AE38" s="37"/>
       <c r="AF38" s="37"/>
-      <c r="AG38" s="41"/>
-      <c r="AH38" s="41"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
       <c r="AI38" s="41"/>
       <c r="AJ38" s="41"/>
-    </row>
-    <row r="39" ht="15.75" spans="1:36">
+      <c r="AK38" s="41"/>
+      <c r="AL38" s="41"/>
+    </row>
+    <row r="39" ht="15.75" spans="1:38">
       <c r="A39" s="27"/>
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
@@ -11457,12 +11956,14 @@
       <c r="AD39" s="38"/>
       <c r="AE39" s="38"/>
       <c r="AF39" s="38"/>
-      <c r="AG39" s="42"/>
-      <c r="AH39" s="42"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="38"/>
       <c r="AI39" s="42"/>
       <c r="AJ39" s="42"/>
-    </row>
-    <row r="40" ht="15.75" spans="1:36">
+      <c r="AK39" s="42"/>
+      <c r="AL39" s="42"/>
+    </row>
+    <row r="40" ht="15.75" spans="1:38">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -11495,12 +11996,14 @@
       <c r="AD40" s="37"/>
       <c r="AE40" s="37"/>
       <c r="AF40" s="37"/>
-      <c r="AG40" s="41"/>
-      <c r="AH40" s="41"/>
+      <c r="AG40" s="37"/>
+      <c r="AH40" s="37"/>
       <c r="AI40" s="41"/>
       <c r="AJ40" s="41"/>
-    </row>
-    <row r="41" ht="15.75" spans="1:36">
+      <c r="AK40" s="41"/>
+      <c r="AL40" s="41"/>
+    </row>
+    <row r="41" ht="15.75" spans="1:38">
       <c r="A41" s="27"/>
       <c r="B41" s="28"/>
       <c r="C41" s="29"/>
@@ -11533,12 +12036,14 @@
       <c r="AD41" s="38"/>
       <c r="AE41" s="38"/>
       <c r="AF41" s="38"/>
-      <c r="AG41" s="42"/>
-      <c r="AH41" s="42"/>
+      <c r="AG41" s="38"/>
+      <c r="AH41" s="38"/>
       <c r="AI41" s="42"/>
       <c r="AJ41" s="42"/>
-    </row>
-    <row r="42" ht="15.75" spans="1:36">
+      <c r="AK41" s="42"/>
+      <c r="AL41" s="42"/>
+    </row>
+    <row r="42" ht="15.75" spans="1:38">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
@@ -11571,12 +12076,14 @@
       <c r="AD42" s="37"/>
       <c r="AE42" s="37"/>
       <c r="AF42" s="37"/>
-      <c r="AG42" s="41"/>
-      <c r="AH42" s="41"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
       <c r="AI42" s="41"/>
       <c r="AJ42" s="41"/>
-    </row>
-    <row r="43" ht="15.75" spans="1:36">
+      <c r="AK42" s="41"/>
+      <c r="AL42" s="41"/>
+    </row>
+    <row r="43" ht="15.75" spans="1:38">
       <c r="A43" s="27"/>
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
@@ -11609,12 +12116,14 @@
       <c r="AD43" s="38"/>
       <c r="AE43" s="38"/>
       <c r="AF43" s="38"/>
-      <c r="AG43" s="42"/>
-      <c r="AH43" s="42"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="38"/>
       <c r="AI43" s="42"/>
       <c r="AJ43" s="42"/>
-    </row>
-    <row r="44" ht="15.75" spans="1:36">
+      <c r="AK43" s="42"/>
+      <c r="AL43" s="42"/>
+    </row>
+    <row r="44" ht="15.75" spans="1:38">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
@@ -11647,12 +12156,14 @@
       <c r="AD44" s="37"/>
       <c r="AE44" s="37"/>
       <c r="AF44" s="37"/>
-      <c r="AG44" s="41"/>
-      <c r="AH44" s="41"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
       <c r="AI44" s="41"/>
       <c r="AJ44" s="41"/>
-    </row>
-    <row r="45" ht="15.75" spans="1:36">
+      <c r="AK44" s="41"/>
+      <c r="AL44" s="41"/>
+    </row>
+    <row r="45" ht="15.75" spans="1:38">
       <c r="A45" s="27"/>
       <c r="B45" s="28"/>
       <c r="C45" s="29"/>
@@ -11685,12 +12196,14 @@
       <c r="AD45" s="38"/>
       <c r="AE45" s="38"/>
       <c r="AF45" s="38"/>
-      <c r="AG45" s="42"/>
-      <c r="AH45" s="42"/>
+      <c r="AG45" s="38"/>
+      <c r="AH45" s="38"/>
       <c r="AI45" s="42"/>
       <c r="AJ45" s="42"/>
-    </row>
-    <row r="46" ht="15.75" spans="1:36">
+      <c r="AK45" s="42"/>
+      <c r="AL45" s="42"/>
+    </row>
+    <row r="46" ht="15.75" spans="1:38">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
@@ -11723,12 +12236,14 @@
       <c r="AD46" s="37"/>
       <c r="AE46" s="37"/>
       <c r="AF46" s="37"/>
-      <c r="AG46" s="41"/>
-      <c r="AH46" s="41"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
       <c r="AI46" s="41"/>
       <c r="AJ46" s="41"/>
-    </row>
-    <row r="47" ht="15.75" spans="1:36">
+      <c r="AK46" s="41"/>
+      <c r="AL46" s="41"/>
+    </row>
+    <row r="47" ht="15.75" spans="1:38">
       <c r="A47" s="27"/>
       <c r="B47" s="28"/>
       <c r="C47" s="29"/>
@@ -11761,12 +12276,14 @@
       <c r="AD47" s="38"/>
       <c r="AE47" s="38"/>
       <c r="AF47" s="38"/>
-      <c r="AG47" s="42"/>
-      <c r="AH47" s="42"/>
+      <c r="AG47" s="38"/>
+      <c r="AH47" s="38"/>
       <c r="AI47" s="42"/>
       <c r="AJ47" s="42"/>
-    </row>
-    <row r="48" ht="15.75" spans="1:36">
+      <c r="AK47" s="42"/>
+      <c r="AL47" s="42"/>
+    </row>
+    <row r="48" ht="15.75" spans="1:38">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
@@ -11799,12 +12316,14 @@
       <c r="AD48" s="37"/>
       <c r="AE48" s="37"/>
       <c r="AF48" s="37"/>
-      <c r="AG48" s="41"/>
-      <c r="AH48" s="41"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="37"/>
       <c r="AI48" s="41"/>
       <c r="AJ48" s="41"/>
-    </row>
-    <row r="49" ht="15.75" spans="1:36">
+      <c r="AK48" s="41"/>
+      <c r="AL48" s="41"/>
+    </row>
+    <row r="49" ht="15.75" spans="1:38">
       <c r="A49" s="27"/>
       <c r="B49" s="28"/>
       <c r="C49" s="29"/>
@@ -11837,12 +12356,14 @@
       <c r="AD49" s="38"/>
       <c r="AE49" s="38"/>
       <c r="AF49" s="38"/>
-      <c r="AG49" s="42"/>
-      <c r="AH49" s="42"/>
+      <c r="AG49" s="38"/>
+      <c r="AH49" s="38"/>
       <c r="AI49" s="42"/>
       <c r="AJ49" s="42"/>
-    </row>
-    <row r="50" ht="15.75" spans="1:36">
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="42"/>
+    </row>
+    <row r="50" ht="15.75" spans="1:38">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
@@ -11875,12 +12396,14 @@
       <c r="AD50" s="37"/>
       <c r="AE50" s="37"/>
       <c r="AF50" s="37"/>
-      <c r="AG50" s="41"/>
-      <c r="AH50" s="41"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="37"/>
       <c r="AI50" s="41"/>
       <c r="AJ50" s="41"/>
-    </row>
-    <row r="51" ht="15.75" spans="1:36">
+      <c r="AK50" s="41"/>
+      <c r="AL50" s="41"/>
+    </row>
+    <row r="51" ht="15.75" spans="1:38">
       <c r="A51" s="27"/>
       <c r="B51" s="28"/>
       <c r="C51" s="29"/>
@@ -11913,12 +12436,14 @@
       <c r="AD51" s="38"/>
       <c r="AE51" s="38"/>
       <c r="AF51" s="38"/>
-      <c r="AG51" s="42"/>
-      <c r="AH51" s="42"/>
+      <c r="AG51" s="38"/>
+      <c r="AH51" s="38"/>
       <c r="AI51" s="42"/>
       <c r="AJ51" s="42"/>
-    </row>
-    <row r="52" ht="15.75" spans="1:36">
+      <c r="AK51" s="42"/>
+      <c r="AL51" s="42"/>
+    </row>
+    <row r="52" ht="15.75" spans="1:38">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
@@ -11951,12 +12476,14 @@
       <c r="AD52" s="37"/>
       <c r="AE52" s="37"/>
       <c r="AF52" s="37"/>
-      <c r="AG52" s="41"/>
-      <c r="AH52" s="41"/>
+      <c r="AG52" s="37"/>
+      <c r="AH52" s="37"/>
       <c r="AI52" s="41"/>
       <c r="AJ52" s="41"/>
-    </row>
-    <row r="53" ht="15.75" spans="1:36">
+      <c r="AK52" s="41"/>
+      <c r="AL52" s="41"/>
+    </row>
+    <row r="53" ht="15.75" spans="1:38">
       <c r="A53" s="27"/>
       <c r="B53" s="28"/>
       <c r="C53" s="29"/>
@@ -11989,12 +12516,14 @@
       <c r="AD53" s="38"/>
       <c r="AE53" s="38"/>
       <c r="AF53" s="38"/>
-      <c r="AG53" s="42"/>
-      <c r="AH53" s="42"/>
+      <c r="AG53" s="38"/>
+      <c r="AH53" s="38"/>
       <c r="AI53" s="42"/>
       <c r="AJ53" s="42"/>
-    </row>
-    <row r="54" ht="15.75" spans="1:36">
+      <c r="AK53" s="42"/>
+      <c r="AL53" s="42"/>
+    </row>
+    <row r="54" ht="15.75" spans="1:38">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
@@ -12027,12 +12556,14 @@
       <c r="AD54" s="37"/>
       <c r="AE54" s="37"/>
       <c r="AF54" s="37"/>
-      <c r="AG54" s="41"/>
-      <c r="AH54" s="41"/>
+      <c r="AG54" s="37"/>
+      <c r="AH54" s="37"/>
       <c r="AI54" s="41"/>
       <c r="AJ54" s="41"/>
-    </row>
-    <row r="55" ht="15.75" spans="1:36">
+      <c r="AK54" s="41"/>
+      <c r="AL54" s="41"/>
+    </row>
+    <row r="55" ht="15.75" spans="1:38">
       <c r="A55" s="27"/>
       <c r="B55" s="28"/>
       <c r="C55" s="29"/>
@@ -12065,12 +12596,14 @@
       <c r="AD55" s="38"/>
       <c r="AE55" s="38"/>
       <c r="AF55" s="38"/>
-      <c r="AG55" s="42"/>
-      <c r="AH55" s="42"/>
+      <c r="AG55" s="38"/>
+      <c r="AH55" s="38"/>
       <c r="AI55" s="42"/>
       <c r="AJ55" s="42"/>
-    </row>
-    <row r="56" ht="15.75" spans="1:36">
+      <c r="AK55" s="42"/>
+      <c r="AL55" s="42"/>
+    </row>
+    <row r="56" ht="15.75" spans="1:38">
       <c r="A56" s="23"/>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
@@ -12103,12 +12636,14 @@
       <c r="AD56" s="37"/>
       <c r="AE56" s="37"/>
       <c r="AF56" s="37"/>
-      <c r="AG56" s="41"/>
-      <c r="AH56" s="41"/>
+      <c r="AG56" s="37"/>
+      <c r="AH56" s="37"/>
       <c r="AI56" s="41"/>
       <c r="AJ56" s="41"/>
-    </row>
-    <row r="57" ht="15.75" spans="1:36">
+      <c r="AK56" s="41"/>
+      <c r="AL56" s="41"/>
+    </row>
+    <row r="57" ht="15.75" spans="1:38">
       <c r="A57" s="27"/>
       <c r="B57" s="28"/>
       <c r="C57" s="29"/>
@@ -12141,12 +12676,14 @@
       <c r="AD57" s="38"/>
       <c r="AE57" s="38"/>
       <c r="AF57" s="38"/>
-      <c r="AG57" s="42"/>
-      <c r="AH57" s="42"/>
+      <c r="AG57" s="38"/>
+      <c r="AH57" s="38"/>
       <c r="AI57" s="42"/>
       <c r="AJ57" s="42"/>
-    </row>
-    <row r="58" ht="15.75" spans="1:36">
+      <c r="AK57" s="42"/>
+      <c r="AL57" s="42"/>
+    </row>
+    <row r="58" ht="15.75" spans="1:38">
       <c r="A58" s="23"/>
       <c r="B58" s="24"/>
       <c r="C58" s="25"/>
@@ -12179,12 +12716,14 @@
       <c r="AD58" s="37"/>
       <c r="AE58" s="37"/>
       <c r="AF58" s="37"/>
-      <c r="AG58" s="41"/>
-      <c r="AH58" s="41"/>
+      <c r="AG58" s="37"/>
+      <c r="AH58" s="37"/>
       <c r="AI58" s="41"/>
       <c r="AJ58" s="41"/>
-    </row>
-    <row r="59" ht="15.75" spans="1:36">
+      <c r="AK58" s="41"/>
+      <c r="AL58" s="41"/>
+    </row>
+    <row r="59" ht="15.75" spans="1:38">
       <c r="A59" s="27"/>
       <c r="B59" s="28"/>
       <c r="C59" s="29"/>
@@ -12217,12 +12756,14 @@
       <c r="AD59" s="38"/>
       <c r="AE59" s="38"/>
       <c r="AF59" s="38"/>
-      <c r="AG59" s="42"/>
-      <c r="AH59" s="42"/>
+      <c r="AG59" s="38"/>
+      <c r="AH59" s="38"/>
       <c r="AI59" s="42"/>
       <c r="AJ59" s="42"/>
-    </row>
-    <row r="60" ht="15.75" spans="1:36">
+      <c r="AK59" s="42"/>
+      <c r="AL59" s="42"/>
+    </row>
+    <row r="60" ht="15.75" spans="1:38">
       <c r="A60" s="23"/>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
@@ -12255,12 +12796,14 @@
       <c r="AD60" s="37"/>
       <c r="AE60" s="37"/>
       <c r="AF60" s="37"/>
-      <c r="AG60" s="41"/>
-      <c r="AH60" s="41"/>
+      <c r="AG60" s="37"/>
+      <c r="AH60" s="37"/>
       <c r="AI60" s="41"/>
       <c r="AJ60" s="41"/>
-    </row>
-    <row r="61" ht="15.75" spans="1:36">
+      <c r="AK60" s="41"/>
+      <c r="AL60" s="41"/>
+    </row>
+    <row r="61" ht="15.75" spans="1:38">
       <c r="A61" s="27"/>
       <c r="B61" s="28"/>
       <c r="C61" s="29"/>
@@ -12293,12 +12836,14 @@
       <c r="AD61" s="38"/>
       <c r="AE61" s="38"/>
       <c r="AF61" s="38"/>
-      <c r="AG61" s="42"/>
-      <c r="AH61" s="42"/>
+      <c r="AG61" s="38"/>
+      <c r="AH61" s="38"/>
       <c r="AI61" s="42"/>
       <c r="AJ61" s="42"/>
-    </row>
-    <row r="62" ht="15.75" spans="1:36">
+      <c r="AK61" s="42"/>
+      <c r="AL61" s="42"/>
+    </row>
+    <row r="62" ht="15.75" spans="1:38">
       <c r="A62" s="23"/>
       <c r="B62" s="24"/>
       <c r="C62" s="25"/>
@@ -12331,12 +12876,14 @@
       <c r="AD62" s="37"/>
       <c r="AE62" s="37"/>
       <c r="AF62" s="37"/>
-      <c r="AG62" s="41"/>
-      <c r="AH62" s="41"/>
+      <c r="AG62" s="37"/>
+      <c r="AH62" s="37"/>
       <c r="AI62" s="41"/>
       <c r="AJ62" s="41"/>
-    </row>
-    <row r="63" ht="15.75" spans="1:36">
+      <c r="AK62" s="41"/>
+      <c r="AL62" s="41"/>
+    </row>
+    <row r="63" ht="15.75" spans="1:38">
       <c r="A63" s="27"/>
       <c r="B63" s="28"/>
       <c r="C63" s="29"/>
@@ -12369,12 +12916,14 @@
       <c r="AD63" s="38"/>
       <c r="AE63" s="38"/>
       <c r="AF63" s="38"/>
-      <c r="AG63" s="42"/>
-      <c r="AH63" s="42"/>
+      <c r="AG63" s="38"/>
+      <c r="AH63" s="38"/>
       <c r="AI63" s="42"/>
       <c r="AJ63" s="42"/>
-    </row>
-    <row r="64" ht="15.75" spans="1:36">
+      <c r="AK63" s="42"/>
+      <c r="AL63" s="42"/>
+    </row>
+    <row r="64" ht="15.75" spans="1:38">
       <c r="A64" s="23"/>
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
@@ -12407,12 +12956,14 @@
       <c r="AD64" s="37"/>
       <c r="AE64" s="37"/>
       <c r="AF64" s="37"/>
-      <c r="AG64" s="41"/>
-      <c r="AH64" s="41"/>
+      <c r="AG64" s="37"/>
+      <c r="AH64" s="37"/>
       <c r="AI64" s="41"/>
       <c r="AJ64" s="41"/>
-    </row>
-    <row r="65" ht="15.75" spans="1:36">
+      <c r="AK64" s="41"/>
+      <c r="AL64" s="41"/>
+    </row>
+    <row r="65" ht="15.75" spans="1:38">
       <c r="A65" s="27"/>
       <c r="B65" s="28"/>
       <c r="C65" s="29"/>
@@ -12445,12 +12996,14 @@
       <c r="AD65" s="38"/>
       <c r="AE65" s="38"/>
       <c r="AF65" s="38"/>
-      <c r="AG65" s="42"/>
-      <c r="AH65" s="42"/>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="38"/>
       <c r="AI65" s="42"/>
       <c r="AJ65" s="42"/>
-    </row>
-    <row r="66" ht="15.75" spans="1:36">
+      <c r="AK65" s="42"/>
+      <c r="AL65" s="42"/>
+    </row>
+    <row r="66" ht="15.75" spans="1:38">
       <c r="A66" s="23"/>
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
@@ -12483,12 +13036,14 @@
       <c r="AD66" s="37"/>
       <c r="AE66" s="37"/>
       <c r="AF66" s="37"/>
-      <c r="AG66" s="41"/>
-      <c r="AH66" s="41"/>
+      <c r="AG66" s="37"/>
+      <c r="AH66" s="37"/>
       <c r="AI66" s="41"/>
       <c r="AJ66" s="41"/>
-    </row>
-    <row r="67" ht="15.75" spans="1:36">
+      <c r="AK66" s="41"/>
+      <c r="AL66" s="41"/>
+    </row>
+    <row r="67" ht="15.75" spans="1:38">
       <c r="A67" s="27"/>
       <c r="B67" s="28"/>
       <c r="C67" s="29"/>
@@ -12521,12 +13076,14 @@
       <c r="AD67" s="38"/>
       <c r="AE67" s="38"/>
       <c r="AF67" s="38"/>
-      <c r="AG67" s="42"/>
-      <c r="AH67" s="42"/>
+      <c r="AG67" s="38"/>
+      <c r="AH67" s="38"/>
       <c r="AI67" s="42"/>
       <c r="AJ67" s="42"/>
-    </row>
-    <row r="68" ht="15.75" spans="1:36">
+      <c r="AK67" s="42"/>
+      <c r="AL67" s="42"/>
+    </row>
+    <row r="68" ht="15.75" spans="1:38">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
@@ -12559,12 +13116,14 @@
       <c r="AD68" s="37"/>
       <c r="AE68" s="37"/>
       <c r="AF68" s="37"/>
-      <c r="AG68" s="41"/>
-      <c r="AH68" s="41"/>
+      <c r="AG68" s="37"/>
+      <c r="AH68" s="37"/>
       <c r="AI68" s="41"/>
       <c r="AJ68" s="41"/>
-    </row>
-    <row r="69" ht="15.75" spans="1:36">
+      <c r="AK68" s="41"/>
+      <c r="AL68" s="41"/>
+    </row>
+    <row r="69" ht="15.75" spans="1:38">
       <c r="A69" s="27"/>
       <c r="B69" s="28"/>
       <c r="C69" s="29"/>
@@ -12597,12 +13156,14 @@
       <c r="AD69" s="38"/>
       <c r="AE69" s="38"/>
       <c r="AF69" s="38"/>
-      <c r="AG69" s="42"/>
-      <c r="AH69" s="42"/>
+      <c r="AG69" s="38"/>
+      <c r="AH69" s="38"/>
       <c r="AI69" s="42"/>
       <c r="AJ69" s="42"/>
-    </row>
-    <row r="70" ht="15.75" spans="1:36">
+      <c r="AK69" s="42"/>
+      <c r="AL69" s="42"/>
+    </row>
+    <row r="70" ht="15.75" spans="1:38">
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
       <c r="C70" s="25"/>
@@ -12635,12 +13196,14 @@
       <c r="AD70" s="37"/>
       <c r="AE70" s="37"/>
       <c r="AF70" s="37"/>
-      <c r="AG70" s="41"/>
-      <c r="AH70" s="41"/>
+      <c r="AG70" s="37"/>
+      <c r="AH70" s="37"/>
       <c r="AI70" s="41"/>
       <c r="AJ70" s="41"/>
-    </row>
-    <row r="71" ht="15.75" spans="1:36">
+      <c r="AK70" s="41"/>
+      <c r="AL70" s="41"/>
+    </row>
+    <row r="71" ht="15.75" spans="1:38">
       <c r="A71" s="27"/>
       <c r="B71" s="28"/>
       <c r="C71" s="29"/>
@@ -12673,12 +13236,14 @@
       <c r="AD71" s="38"/>
       <c r="AE71" s="38"/>
       <c r="AF71" s="38"/>
-      <c r="AG71" s="42"/>
-      <c r="AH71" s="42"/>
+      <c r="AG71" s="38"/>
+      <c r="AH71" s="38"/>
       <c r="AI71" s="42"/>
       <c r="AJ71" s="42"/>
-    </row>
-    <row r="72" ht="15.75" spans="1:36">
+      <c r="AK71" s="42"/>
+      <c r="AL71" s="42"/>
+    </row>
+    <row r="72" ht="15.75" spans="1:38">
       <c r="A72" s="23"/>
       <c r="B72" s="24"/>
       <c r="C72" s="25"/>
@@ -12711,12 +13276,14 @@
       <c r="AD72" s="37"/>
       <c r="AE72" s="37"/>
       <c r="AF72" s="37"/>
-      <c r="AG72" s="41"/>
-      <c r="AH72" s="41"/>
+      <c r="AG72" s="37"/>
+      <c r="AH72" s="37"/>
       <c r="AI72" s="41"/>
       <c r="AJ72" s="41"/>
-    </row>
-    <row r="73" ht="15.75" spans="1:36">
+      <c r="AK72" s="41"/>
+      <c r="AL72" s="41"/>
+    </row>
+    <row r="73" ht="15.75" spans="1:38">
       <c r="A73" s="27"/>
       <c r="B73" s="28"/>
       <c r="C73" s="29"/>
@@ -12749,12 +13316,14 @@
       <c r="AD73" s="38"/>
       <c r="AE73" s="38"/>
       <c r="AF73" s="38"/>
-      <c r="AG73" s="42"/>
-      <c r="AH73" s="42"/>
+      <c r="AG73" s="38"/>
+      <c r="AH73" s="38"/>
       <c r="AI73" s="42"/>
       <c r="AJ73" s="42"/>
-    </row>
-    <row r="74" ht="15.75" spans="1:36">
+      <c r="AK73" s="42"/>
+      <c r="AL73" s="42"/>
+    </row>
+    <row r="74" ht="15.75" spans="1:38">
       <c r="A74" s="23"/>
       <c r="B74" s="24"/>
       <c r="C74" s="25"/>
@@ -12787,12 +13356,14 @@
       <c r="AD74" s="37"/>
       <c r="AE74" s="37"/>
       <c r="AF74" s="37"/>
-      <c r="AG74" s="41"/>
-      <c r="AH74" s="41"/>
+      <c r="AG74" s="37"/>
+      <c r="AH74" s="37"/>
       <c r="AI74" s="41"/>
       <c r="AJ74" s="41"/>
-    </row>
-    <row r="75" ht="15.75" spans="1:36">
+      <c r="AK74" s="41"/>
+      <c r="AL74" s="41"/>
+    </row>
+    <row r="75" ht="15.75" spans="1:38">
       <c r="A75" s="27"/>
       <c r="B75" s="28"/>
       <c r="C75" s="29"/>
@@ -12825,12 +13396,14 @@
       <c r="AD75" s="38"/>
       <c r="AE75" s="38"/>
       <c r="AF75" s="38"/>
-      <c r="AG75" s="42"/>
-      <c r="AH75" s="42"/>
+      <c r="AG75" s="38"/>
+      <c r="AH75" s="38"/>
       <c r="AI75" s="42"/>
       <c r="AJ75" s="42"/>
-    </row>
-    <row r="76" ht="15.75" spans="1:36">
+      <c r="AK75" s="42"/>
+      <c r="AL75" s="42"/>
+    </row>
+    <row r="76" ht="15.75" spans="1:38">
       <c r="A76" s="23"/>
       <c r="B76" s="24"/>
       <c r="C76" s="25"/>
@@ -12863,12 +13436,14 @@
       <c r="AD76" s="37"/>
       <c r="AE76" s="37"/>
       <c r="AF76" s="37"/>
-      <c r="AG76" s="41"/>
-      <c r="AH76" s="41"/>
+      <c r="AG76" s="37"/>
+      <c r="AH76" s="37"/>
       <c r="AI76" s="41"/>
       <c r="AJ76" s="41"/>
-    </row>
-    <row r="77" ht="15.75" spans="1:36">
+      <c r="AK76" s="41"/>
+      <c r="AL76" s="41"/>
+    </row>
+    <row r="77" ht="15.75" spans="1:38">
       <c r="A77" s="27"/>
       <c r="B77" s="28"/>
       <c r="C77" s="29"/>
@@ -12901,12 +13476,14 @@
       <c r="AD77" s="38"/>
       <c r="AE77" s="38"/>
       <c r="AF77" s="38"/>
-      <c r="AG77" s="42"/>
-      <c r="AH77" s="42"/>
+      <c r="AG77" s="38"/>
+      <c r="AH77" s="38"/>
       <c r="AI77" s="42"/>
       <c r="AJ77" s="42"/>
-    </row>
-    <row r="78" ht="15.75" spans="1:36">
+      <c r="AK77" s="42"/>
+      <c r="AL77" s="42"/>
+    </row>
+    <row r="78" ht="15.75" spans="1:38">
       <c r="A78" s="23"/>
       <c r="B78" s="24"/>
       <c r="C78" s="25"/>
@@ -12939,12 +13516,14 @@
       <c r="AD78" s="37"/>
       <c r="AE78" s="37"/>
       <c r="AF78" s="37"/>
-      <c r="AG78" s="41"/>
-      <c r="AH78" s="41"/>
+      <c r="AG78" s="37"/>
+      <c r="AH78" s="37"/>
       <c r="AI78" s="41"/>
       <c r="AJ78" s="41"/>
-    </row>
-    <row r="79" ht="15.75" spans="1:36">
+      <c r="AK78" s="41"/>
+      <c r="AL78" s="41"/>
+    </row>
+    <row r="79" ht="15.75" spans="1:38">
       <c r="A79" s="27"/>
       <c r="B79" s="28"/>
       <c r="C79" s="29"/>
@@ -12977,12 +13556,14 @@
       <c r="AD79" s="38"/>
       <c r="AE79" s="38"/>
       <c r="AF79" s="38"/>
-      <c r="AG79" s="42"/>
-      <c r="AH79" s="42"/>
+      <c r="AG79" s="38"/>
+      <c r="AH79" s="38"/>
       <c r="AI79" s="42"/>
       <c r="AJ79" s="42"/>
-    </row>
-    <row r="80" ht="15.75" spans="1:36">
+      <c r="AK79" s="42"/>
+      <c r="AL79" s="42"/>
+    </row>
+    <row r="80" ht="15.75" spans="1:38">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="25"/>
@@ -13015,12 +13596,14 @@
       <c r="AD80" s="37"/>
       <c r="AE80" s="37"/>
       <c r="AF80" s="37"/>
-      <c r="AG80" s="41"/>
-      <c r="AH80" s="41"/>
+      <c r="AG80" s="37"/>
+      <c r="AH80" s="37"/>
       <c r="AI80" s="41"/>
       <c r="AJ80" s="41"/>
-    </row>
-    <row r="81" ht="15.75" spans="1:36">
+      <c r="AK80" s="41"/>
+      <c r="AL80" s="41"/>
+    </row>
+    <row r="81" ht="15.75" spans="1:38">
       <c r="A81" s="27"/>
       <c r="B81" s="28"/>
       <c r="C81" s="29"/>
@@ -13053,16 +13636,23 @@
       <c r="AD81" s="38"/>
       <c r="AE81" s="38"/>
       <c r="AF81" s="38"/>
-      <c r="AG81" s="42"/>
-      <c r="AH81" s="42"/>
+      <c r="AG81" s="38"/>
+      <c r="AH81" s="38"/>
       <c r="AI81" s="42"/>
       <c r="AJ81" s="42"/>
+      <c r="AK81" s="42"/>
+      <c r="AL81" s="42"/>
     </row>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A1:C1" name="区域1"/>
   </protectedRanges>
-  <autoFilter ref="A1:AJ36">
+  <autoFilter ref="A1:AL36">
+    <filterColumn colId="21">
+      <customFilters>
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="P1">
@@ -13070,33 +13660,33 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:AF3 Q82:AF1048576">
+  <conditionalFormatting sqref="Q1:AH1 Q2:T3 W2:AH3 Q82:AH1048576 U2:V29">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AJ3 AG82:AJ1048576">
+  <conditionalFormatting sqref="AI1:AL3 AI82:AL1048576">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:AF81">
+  <conditionalFormatting sqref="Q4:T29 W4:AH29 Q30:AH81">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AJ81">
+  <conditionalFormatting sqref="AI4:AL81">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="运算器功能选择端ALU_OP 的四位" prompt="S3 S2 S1 S0" sqref="Q1:T25"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选对应信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制该列的表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="Q26:T1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AF$1:AF$1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="运算器功能选择端ALU_OP 的四位" prompt="S3 S2 S1 S0" sqref="Q1:T25 U1:V29"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="AH$1:AH$1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选对应信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制该列的表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路" sqref="U30:U1048576 V30:V1048576 Q26:T1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="逻辑表达式最小项" prompt="当前指令Opcode以及Func字段的逻辑表达式" sqref="P$1:P$1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。&#10;&#10;另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="U27:W27 Y27:AE27 X25:X27 U1:AE24 U25:W26 Y25:AE26 U28:AE1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AG1:AH1 AG2:AH2 AG3:AH29 AG30:AJ1048576 AI1:AJ29"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="自动生成表达式" prompt="在绿色标题栏筛选某信号为1的条件，逻辑表达式最小项列将出现该信号的逻辑表达式，复制表达式到Logisim中，注意去掉最后一个“+”号，即可自动生成电路。&#10;&#10;另外重新筛选其他信号逻辑表达式时，应该先去掉原筛选！！！" sqref="W27:Y27 AA27:AG27 Z25:Z27 W1:AG24 W25:Y26 AA25:AG26 W28:AG1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="用户自定义控制信号" prompt="可直接将前列公式复制过来即可" sqref="AI1:AJ1 AI2:AJ2 AI3:AJ29 AK1:AL29 AI30:AL1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode(10进制)" prompt="输入MIPS指令字的OpCode的十进制数，后续隐藏列会自动生成OpCode字段6位的二进制位" sqref="B1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FUNC(十进制)" prompt="输入MIPS指令字的Func字段的10进制数，无Func字段填&quot;X&quot;，后续隐藏列会自动生成Func字段6位的二进制位" sqref="C1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="A1"/>
@@ -13130,98 +13720,98 @@
         <v>16</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" s="12">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" s="12">
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" s="12">
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B9" s="12">
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:3">
@@ -13232,7 +13822,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:3">
@@ -13243,7 +13833,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:3">
@@ -13254,7 +13844,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:3">
@@ -13265,7 +13855,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:3">
@@ -13276,13 +13866,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" ht="13.5"/>
     <row r="29" spans="6:6">
       <c r="F29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -13314,13 +13904,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13328,13 +13918,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13342,13 +13932,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13356,13 +13946,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13370,13 +13960,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13384,13 +13974,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13398,13 +13988,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13412,13 +14002,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13426,13 +14016,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13440,13 +14030,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13454,13 +14044,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13468,13 +14058,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13482,13 +14072,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:4">
@@ -13496,13 +14086,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
